--- a/Code/Results/Cases/Case_5_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_9/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.647111162131694</v>
+        <v>3.94081327923584</v>
       </c>
       <c r="C2">
-        <v>0.5374036621657297</v>
+        <v>0.5338260687930187</v>
       </c>
       <c r="D2">
-        <v>0.228031735945919</v>
+        <v>0.006120027778743431</v>
       </c>
       <c r="E2">
-        <v>0.02498268960236771</v>
+        <v>0.02498536293414766</v>
       </c>
       <c r="F2">
-        <v>6.574623152484634</v>
+        <v>2.069144844559332</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.084279848344881</v>
+        <v>0.0532292984558449</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.08838237931314197</v>
+        <v>0.301389349324424</v>
       </c>
       <c r="M2">
-        <v>0.5728770342204186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1.012020378122394</v>
+      </c>
+      <c r="O2">
+        <v>1.499348931075843</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.269743902698224</v>
+        <v>3.455544262249589</v>
       </c>
       <c r="C3">
-        <v>0.4583517734622262</v>
+        <v>0.4611330454418123</v>
       </c>
       <c r="D3">
-        <v>0.2013966196433046</v>
+        <v>0.005621427950081692</v>
       </c>
       <c r="E3">
-        <v>0.02341408015417556</v>
+        <v>0.02509835514157732</v>
       </c>
       <c r="F3">
-        <v>5.792083664844199</v>
+        <v>1.942515865332396</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07637731828949867</v>
+        <v>0.05446214941972016</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.07671515769652615</v>
+        <v>0.2703125943139781</v>
       </c>
       <c r="M3">
-        <v>0.4926525648260309</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1.073762221210462</v>
+      </c>
+      <c r="O3">
+        <v>1.405541425160138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.044560474007994</v>
+        <v>3.162343546781926</v>
       </c>
       <c r="C4">
-        <v>0.4111672543938596</v>
+        <v>0.4169690161964184</v>
       </c>
       <c r="D4">
-        <v>0.1854658302397496</v>
+        <v>0.005326711536369988</v>
       </c>
       <c r="E4">
-        <v>0.02248653670792145</v>
+        <v>0.02518504566852542</v>
       </c>
       <c r="F4">
-        <v>5.32440579307746</v>
+        <v>1.869102038866629</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07166114183678829</v>
+        <v>0.05528114400274831</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.06977162283703109</v>
+        <v>0.2516110304480748</v>
       </c>
       <c r="M4">
-        <v>0.4448194738290852</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1.113330928439222</v>
+      </c>
+      <c r="O4">
+        <v>1.351242149238473</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.954198232734257</v>
+        <v>3.043920225144916</v>
       </c>
       <c r="C5">
-        <v>0.392223246116032</v>
+        <v>0.3990699436737941</v>
       </c>
       <c r="D5">
-        <v>0.1790627295063416</v>
+        <v>0.005208953847255948</v>
       </c>
       <c r="E5">
-        <v>0.02211648078409745</v>
+        <v>0.02522463468492964</v>
       </c>
       <c r="F5">
-        <v>5.136566011828364</v>
+        <v>1.84019211447567</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06976837443093231</v>
+        <v>0.05563006944993276</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.06699012221701039</v>
+        <v>0.2440764594128666</v>
       </c>
       <c r="M5">
-        <v>0.4256349817316618</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1.129858022214044</v>
+      </c>
+      <c r="O5">
+        <v>1.329879141852871</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.939271875119204</v>
+        <v>3.024316221450249</v>
       </c>
       <c r="C6">
-        <v>0.389093245478648</v>
+        <v>0.3961031885934005</v>
       </c>
       <c r="D6">
-        <v>0.17800438605191</v>
+        <v>0.00518952719488075</v>
       </c>
       <c r="E6">
-        <v>0.02205548415866865</v>
+        <v>0.02523146329655912</v>
       </c>
       <c r="F6">
-        <v>5.105528058375285</v>
+        <v>1.835450124961469</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06945570194783279</v>
+        <v>0.05568891338960746</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.06653095950882104</v>
+        <v>0.2428303219091674</v>
       </c>
       <c r="M6">
-        <v>0.4224666400995361</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1.132626239026099</v>
+      </c>
+      <c r="O6">
+        <v>1.326376187813111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.043336435989943</v>
+        <v>3.1607423374532</v>
       </c>
       <c r="C7">
-        <v>0.410910688234793</v>
+        <v>0.4167272510016176</v>
       </c>
       <c r="D7">
-        <v>0.185379137999746</v>
+        <v>0.005325114596789859</v>
       </c>
       <c r="E7">
-        <v>0.0224815151850617</v>
+        <v>0.02518556243850867</v>
       </c>
       <c r="F7">
-        <v>5.321862007134342</v>
+        <v>1.868708179009829</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07163550375646466</v>
+        <v>0.05528578880435298</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.06973392508775689</v>
+        <v>0.2515090778822042</v>
       </c>
       <c r="M7">
-        <v>0.4445595609654305</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1.113552207287938</v>
+      </c>
+      <c r="O7">
+        <v>1.350951027731838</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.515488928670493</v>
+        <v>3.772418886332673</v>
       </c>
       <c r="C8">
-        <v>0.5098294635760396</v>
+        <v>0.5086514368119026</v>
       </c>
       <c r="D8">
-        <v>0.2187488477285484</v>
+        <v>0.005945401381792781</v>
       </c>
       <c r="E8">
-        <v>0.02443379291718628</v>
+        <v>0.02502067164430688</v>
       </c>
       <c r="F8">
-        <v>6.301841275990029</v>
+        <v>2.024530557559814</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08152357909244046</v>
+        <v>0.05364125299621314</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.08430914013867508</v>
+        <v>0.290589625853201</v>
       </c>
       <c r="M8">
-        <v>0.5448875693523547</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1.032955477463609</v>
+      </c>
+      <c r="O8">
+        <v>1.466278563365179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.505609463705014</v>
+        <v>5.016522587460031</v>
       </c>
       <c r="C9">
-        <v>0.7175217628355313</v>
+        <v>0.6936430512423328</v>
       </c>
       <c r="D9">
-        <v>0.2884629933928835</v>
+        <v>0.00727966436592542</v>
       </c>
       <c r="E9">
-        <v>0.02859790098140458</v>
+        <v>0.0248392983992618</v>
       </c>
       <c r="F9">
-        <v>8.350032712022966</v>
+        <v>2.368663264118439</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1022580922436376</v>
+        <v>0.05092886225690307</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1150207245395869</v>
+        <v>0.3706882125888313</v>
       </c>
       <c r="M9">
-        <v>0.7555808568016715</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.888789330574987</v>
+      </c>
+      <c r="O9">
+        <v>1.721844182694525</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.292978389632992</v>
+        <v>5.968438211722116</v>
       </c>
       <c r="C10">
-        <v>0.8834570807539421</v>
+        <v>0.8340022102231046</v>
       </c>
       <c r="D10">
-        <v>0.3438058401118127</v>
+        <v>0.008375532122759211</v>
       </c>
       <c r="E10">
-        <v>0.03194993001616453</v>
+        <v>0.02479984285935277</v>
       </c>
       <c r="F10">
-        <v>9.972985150895823</v>
+        <v>2.651440816745236</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1187482575183694</v>
+        <v>0.04927984594740487</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1395163292358106</v>
+        <v>0.4323447677842154</v>
       </c>
       <c r="M10">
-        <v>0.9232725053466524</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.7924441622386702</v>
+      </c>
+      <c r="O10">
+        <v>1.932545764941239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.670057641705228</v>
+        <v>6.412431084701154</v>
       </c>
       <c r="C11">
-        <v>0.9632677840613155</v>
+        <v>0.8992209972542184</v>
       </c>
       <c r="D11">
-        <v>0.3703040322136104</v>
+        <v>0.008910867738135764</v>
       </c>
       <c r="E11">
-        <v>0.03356303870203448</v>
+        <v>0.02480414271368936</v>
       </c>
       <c r="F11">
-        <v>10.74846478949701</v>
+        <v>2.788223019684807</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1266453310291169</v>
+        <v>0.0486122332921326</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1512574523384913</v>
+        <v>0.4611810468850166</v>
       </c>
       <c r="M11">
-        <v>1.003598630125843</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0.7509772018698477</v>
+      </c>
+      <c r="O11">
+        <v>2.03465648738981</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.816183205442996</v>
+        <v>6.582393446447838</v>
       </c>
       <c r="C12">
-        <v>0.994263425998696</v>
+        <v>0.9241526356560996</v>
       </c>
       <c r="D12">
-        <v>0.3805729365875123</v>
+        <v>0.009120043707215864</v>
       </c>
       <c r="E12">
-        <v>0.03418914179834331</v>
+        <v>0.02480915251884408</v>
       </c>
       <c r="F12">
-        <v>11.0486674336596</v>
+        <v>2.841346129027926</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1297054176966981</v>
+        <v>0.04837204984136001</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1558081028369109</v>
+        <v>0.4722307455792389</v>
       </c>
       <c r="M12">
-        <v>1.034727354320282</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0.7356417730693465</v>
+      </c>
+      <c r="O12">
+        <v>2.07434528358975</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.784552942524726</v>
+        <v>6.545703127556806</v>
       </c>
       <c r="C13">
-        <v>0.9875508094197869</v>
+        <v>0.9187720675100195</v>
       </c>
       <c r="D13">
-        <v>0.3783501009400112</v>
+        <v>0.00907468633728481</v>
       </c>
       <c r="E13">
-        <v>0.0340535743011916</v>
+        <v>0.02480792000496201</v>
       </c>
       <c r="F13">
-        <v>10.98370055297181</v>
+        <v>2.829843432770076</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1290430444854529</v>
+        <v>0.04842320301455771</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1548230517808413</v>
+        <v>0.4698449252962149</v>
       </c>
       <c r="M13">
-        <v>1.027989242917513</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.7389277216582641</v>
+      </c>
+      <c r="O13">
+        <v>2.065750058108847</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.682008666078445</v>
+        <v>6.426375700071219</v>
       </c>
       <c r="C14">
-        <v>0.965801335970383</v>
+        <v>0.9012672001422573</v>
       </c>
       <c r="D14">
-        <v>0.3711438712154234</v>
+        <v>0.008927940083101049</v>
       </c>
       <c r="E14">
-        <v>0.0336142262896999</v>
+        <v>0.0248044859702663</v>
       </c>
       <c r="F14">
-        <v>10.77302371502094</v>
+        <v>2.792565943205631</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1268956080974029</v>
+        <v>0.04859221552705861</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1516296217613728</v>
+        <v>0.4620874037030944</v>
       </c>
       <c r="M14">
-        <v>1.006144519005744</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0.7497080163651049</v>
+      </c>
+      <c r="O14">
+        <v>2.03790048402567</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.619652009344975</v>
+        <v>6.353530893588754</v>
       </c>
       <c r="C15">
-        <v>0.9525848806652562</v>
+        <v>0.8905767348636289</v>
       </c>
       <c r="D15">
-        <v>0.3667618781853577</v>
+        <v>0.008838932076844941</v>
       </c>
       <c r="E15">
-        <v>0.03334718451904095</v>
+        <v>0.0248028287294817</v>
       </c>
       <c r="F15">
-        <v>10.64487021800574</v>
+        <v>2.769910111923934</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1255897332142411</v>
+        <v>0.04869740901209241</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1496877845552547</v>
+        <v>0.4573531596768703</v>
       </c>
       <c r="M15">
-        <v>0.9928608983970406</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.7563599611037368</v>
+      </c>
+      <c r="O15">
+        <v>2.020978724539532</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.268765490832038</v>
+        <v>5.939663963443763</v>
       </c>
       <c r="C16">
-        <v>0.8783404897349669</v>
+        <v>0.829770681652036</v>
       </c>
       <c r="D16">
-        <v>0.3421043284467089</v>
+        <v>0.008341382852765644</v>
       </c>
       <c r="E16">
-        <v>0.03184649298047582</v>
+        <v>0.02480002458168418</v>
       </c>
       <c r="F16">
-        <v>9.923151032926967</v>
+        <v>2.642678538515753</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.118241157935234</v>
+        <v>0.04932519966833659</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1387625533806371</v>
+        <v>0.4304774924369497</v>
       </c>
       <c r="M16">
-        <v>0.9181148323001906</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0.7952039252656284</v>
+      </c>
+      <c r="O16">
+        <v>1.926008620302909</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.05874863863977</v>
+        <v>5.688749930143956</v>
       </c>
       <c r="C17">
-        <v>0.8339995556981421</v>
+        <v>0.7928441858967687</v>
       </c>
       <c r="D17">
-        <v>0.3273453254273733</v>
+        <v>0.008046354791722443</v>
       </c>
       <c r="E17">
-        <v>0.0309501391198701</v>
+        <v>0.02480412492277306</v>
       </c>
       <c r="F17">
-        <v>9.490704057986534</v>
+        <v>2.566817052167266</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1138426648748485</v>
+        <v>0.04973198056526229</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1322254945524577</v>
+        <v>0.4142033065798216</v>
       </c>
       <c r="M17">
-        <v>0.8733800882070923</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0.8196567978210716</v>
+      </c>
+      <c r="O17">
+        <v>1.869433009042609</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.939688122435427</v>
+        <v>5.545445566800709</v>
       </c>
       <c r="C18">
-        <v>0.8088922899620741</v>
+        <v>0.7717313405138668</v>
       </c>
       <c r="D18">
-        <v>0.3189776861177478</v>
+        <v>0.007880048885495761</v>
       </c>
       <c r="E18">
-        <v>0.03044270692432249</v>
+        <v>0.02480856521177532</v>
       </c>
       <c r="F18">
-        <v>9.24538839585972</v>
+        <v>2.523939861134224</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1113491094400985</v>
+        <v>0.04997366830588845</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1285205279440085</v>
+        <v>0.4049159260804629</v>
       </c>
       <c r="M18">
-        <v>0.8480211929387593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0.8339418186845258</v>
+      </c>
+      <c r="O18">
+        <v>1.837473499554363</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.899657616925992</v>
+        <v>5.497092161431283</v>
       </c>
       <c r="C19">
-        <v>0.800455404918381</v>
+        <v>0.7646035074258748</v>
       </c>
       <c r="D19">
-        <v>0.3161641770284405</v>
+        <v>0.007824289633345582</v>
       </c>
       <c r="E19">
-        <v>0.03027222491374992</v>
+        <v>0.02481042101477815</v>
       </c>
       <c r="F19">
-        <v>9.162882814071935</v>
+        <v>2.509547847884832</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1105107281331428</v>
+        <v>0.0500568034975224</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1272750259808895</v>
+        <v>0.4017834581506889</v>
       </c>
       <c r="M19">
-        <v>0.8394953547129447</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0.8388155412564586</v>
+      </c>
+      <c r="O19">
+        <v>1.826748936003611</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.080921601291834</v>
+        <v>5.715353380376257</v>
       </c>
       <c r="C20">
-        <v>0.8386776994210834</v>
+        <v>0.7967617436482044</v>
       </c>
       <c r="D20">
-        <v>0.3289035938239948</v>
+        <v>0.008077402698982716</v>
       </c>
       <c r="E20">
-        <v>0.03104469947722954</v>
+        <v>0.02480347172392072</v>
       </c>
       <c r="F20">
-        <v>9.536377278018165</v>
+        <v>2.574813293702647</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1143070465126854</v>
+        <v>0.04968787402784258</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1329155631441026</v>
+        <v>0.4159280414566524</v>
       </c>
       <c r="M20">
-        <v>0.8781028897536771</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0.8170307498672855</v>
+      </c>
+      <c r="O20">
+        <v>1.875394586799629</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.712032361411616</v>
+        <v>6.461373147113022</v>
       </c>
       <c r="C21">
-        <v>0.9721673321472508</v>
+        <v>0.9064021083132445</v>
       </c>
       <c r="D21">
-        <v>0.3732537474993478</v>
+        <v>0.008970857641735996</v>
       </c>
       <c r="E21">
-        <v>0.0337428363895107</v>
+        <v>0.02480540128021502</v>
       </c>
       <c r="F21">
-        <v>10.83471618713088</v>
+        <v>2.803477906629155</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1275243575101186</v>
+        <v>0.04854222327178981</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1525646051069529</v>
+        <v>0.4643623041556282</v>
       </c>
       <c r="M21">
-        <v>1.012540377847827</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0.7465313784002525</v>
+      </c>
+      <c r="O21">
+        <v>2.046051809285146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.144320398475941</v>
+        <v>6.959760132210533</v>
       </c>
       <c r="C22">
-        <v>1.064012807441713</v>
+        <v>0.9794476558321605</v>
       </c>
       <c r="D22">
-        <v>0.4036345405824306</v>
+        <v>0.009593088874074063</v>
       </c>
       <c r="E22">
-        <v>0.03559673933568597</v>
+        <v>0.02482647571583563</v>
       </c>
       <c r="F22">
-        <v>11.7221564599929</v>
+        <v>2.960742742023314</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1365765073738103</v>
+        <v>0.04786749291889159</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1660273708632403</v>
+        <v>0.4967840345833565</v>
       </c>
       <c r="M22">
-        <v>1.104628726039394</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0.7026118111450046</v>
+      </c>
+      <c r="O22">
+        <v>2.163608919052265</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.911546686568556</v>
+        <v>6.69267867047904</v>
       </c>
       <c r="C23">
-        <v>1.014512870313837</v>
+        <v>0.9403209359261382</v>
       </c>
       <c r="D23">
-        <v>0.3872748012233274</v>
+        <v>0.00925705446686198</v>
       </c>
       <c r="E23">
-        <v>0.03459800089172305</v>
+        <v>0.02481334810856328</v>
       </c>
       <c r="F23">
-        <v>11.24448918037524</v>
+        <v>2.876035573715797</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1317023925186156</v>
+        <v>0.04822056181707701</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1587780189740222</v>
+        <v>0.4794037052568285</v>
       </c>
       <c r="M23">
-        <v>1.055042347355702</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0.7258451593502784</v>
+      </c>
+      <c r="O23">
+        <v>2.10027126625252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.070892013751518</v>
+        <v>5.703323022099084</v>
       </c>
       <c r="C24">
-        <v>0.836561522624379</v>
+        <v>0.7949902551288801</v>
       </c>
       <c r="D24">
-        <v>0.3281987379004647</v>
+        <v>0.00806335571674488</v>
       </c>
       <c r="E24">
-        <v>0.03100192433937643</v>
+        <v>0.02480376056063172</v>
       </c>
       <c r="F24">
-        <v>9.515718211499689</v>
+        <v>2.571195910098851</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.114096990870852</v>
+        <v>0.04970779027972227</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1326034185411977</v>
+        <v>0.4151480755500785</v>
       </c>
       <c r="M24">
-        <v>0.8759666001933155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0.8182172819593134</v>
+      </c>
+      <c r="O24">
+        <v>1.872697601754666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.228947146163534</v>
+        <v>4.674149408179858</v>
       </c>
       <c r="C25">
-        <v>0.6594059764729536</v>
+        <v>0.6429406188046869</v>
       </c>
       <c r="D25">
-        <v>0.26900411710821</v>
+        <v>0.006901942963713381</v>
       </c>
       <c r="E25">
-        <v>0.02742723902977673</v>
+        <v>0.02487246881776084</v>
       </c>
       <c r="F25">
-        <v>7.778570825975294</v>
+        <v>2.270814480282425</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.09646413752695082</v>
+        <v>0.05160472517338555</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1064253501741845</v>
+        <v>0.3485811807797461</v>
       </c>
       <c r="M25">
-        <v>0.6966804724456921</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.9261966170035869</v>
+      </c>
+      <c r="O25">
+        <v>1.649073527842461</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_9/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.94081327923584</v>
+        <v>3.403601919396976</v>
       </c>
       <c r="C2">
-        <v>0.5338260687930187</v>
+        <v>0.517768102399998</v>
       </c>
       <c r="D2">
-        <v>0.006120027778743431</v>
+        <v>0.07139381915398957</v>
       </c>
       <c r="E2">
-        <v>0.02498536293414766</v>
+        <v>0.03894618050198684</v>
       </c>
       <c r="F2">
-        <v>2.069144844559332</v>
+        <v>0.6483894673218842</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.2853435002556601</v>
       </c>
       <c r="J2">
-        <v>0.0532292984558449</v>
+        <v>0.04287305676248332</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.301389349324424</v>
+        <v>0.3490279474901001</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.012020378122394</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.499348931075843</v>
+        <v>1.594587422431971</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.455544262249589</v>
+        <v>2.962018294609948</v>
       </c>
       <c r="C3">
-        <v>0.4611330454418123</v>
+        <v>0.4587133363421287</v>
       </c>
       <c r="D3">
-        <v>0.005621427950081692</v>
+        <v>0.06617433735132749</v>
       </c>
       <c r="E3">
-        <v>0.02509835514157732</v>
+        <v>0.03937182491496927</v>
       </c>
       <c r="F3">
-        <v>1.942515865332396</v>
+        <v>0.6353799423310278</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.3009863807398467</v>
       </c>
       <c r="J3">
-        <v>0.05446214941972016</v>
+        <v>0.04524422685729457</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2703125943139781</v>
+        <v>0.3103777519828412</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.073762221210462</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.405541425160138</v>
+        <v>1.576164616426325</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.162343546781926</v>
+        <v>2.691238044698366</v>
       </c>
       <c r="C4">
-        <v>0.4169690161964184</v>
+        <v>0.4224446136226447</v>
       </c>
       <c r="D4">
-        <v>0.005326711536369988</v>
+        <v>0.06301040980918771</v>
       </c>
       <c r="E4">
-        <v>0.02518504566852542</v>
+        <v>0.03968502206404168</v>
       </c>
       <c r="F4">
-        <v>1.869102038866629</v>
+        <v>0.6290816975453097</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.311661408040667</v>
       </c>
       <c r="J4">
-        <v>0.05528114400274831</v>
+        <v>0.04677530160666543</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2516110304480748</v>
+        <v>0.2868201813743951</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.113330928439222</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.351242149238473</v>
+        <v>1.569715148422773</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.043920225144916</v>
+        <v>2.580945625379059</v>
       </c>
       <c r="C5">
-        <v>0.3990699436737941</v>
+        <v>0.407658177638325</v>
       </c>
       <c r="D5">
-        <v>0.005208953847255948</v>
+        <v>0.06173078896306805</v>
       </c>
       <c r="E5">
-        <v>0.02522463468492964</v>
+        <v>0.0398254131903828</v>
       </c>
       <c r="F5">
-        <v>1.84019211447567</v>
+        <v>0.6269200240163642</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.3162699633140669</v>
       </c>
       <c r="J5">
-        <v>0.05563006944993276</v>
+        <v>0.04741778030435784</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2440764594128666</v>
+        <v>0.2772595639171413</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.129858022214044</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.329879141852871</v>
+        <v>1.568250286746775</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.024316221450249</v>
+        <v>2.562633825635032</v>
       </c>
       <c r="C6">
-        <v>0.3961031885934005</v>
+        <v>0.405202377575165</v>
       </c>
       <c r="D6">
-        <v>0.00518952719488075</v>
+        <v>0.06151887912868403</v>
       </c>
       <c r="E6">
-        <v>0.02523146329655912</v>
+        <v>0.03984948786776688</v>
       </c>
       <c r="F6">
-        <v>1.835450124961469</v>
+        <v>0.6265849704019644</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.3170505130333012</v>
       </c>
       <c r="J6">
-        <v>0.05568891338960746</v>
+        <v>0.04752557409560865</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2428303219091674</v>
+        <v>0.2756742791730034</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.132626239026099</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.326376187813111</v>
+        <v>1.568075633412604</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.1607423374532</v>
+        <v>2.689750435184067</v>
       </c>
       <c r="C7">
-        <v>0.4167272510016176</v>
+        <v>0.4222452310468157</v>
       </c>
       <c r="D7">
-        <v>0.005325114596789859</v>
+        <v>0.06299311382427675</v>
       </c>
       <c r="E7">
-        <v>0.02518556243850867</v>
+        <v>0.03968686411747591</v>
       </c>
       <c r="F7">
-        <v>1.868708179009829</v>
+        <v>0.6290509306488872</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.3117225281896445</v>
       </c>
       <c r="J7">
-        <v>0.05528578880435298</v>
+        <v>0.04678389162548746</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2515090778822042</v>
+        <v>0.2866910901345818</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.113552207287938</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.350951027731838</v>
+        <v>1.569690758622741</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.772418886332673</v>
+        <v>3.251247714855083</v>
       </c>
       <c r="C8">
-        <v>0.5086514368119026</v>
+        <v>0.4974050864380217</v>
       </c>
       <c r="D8">
-        <v>0.005945401381792781</v>
+        <v>0.06958530789343342</v>
       </c>
       <c r="E8">
-        <v>0.02502067164430688</v>
+        <v>0.03908201057342531</v>
       </c>
       <c r="F8">
-        <v>2.024530557559814</v>
+        <v>0.6435407620992919</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.2905084232891078</v>
       </c>
       <c r="J8">
-        <v>0.05364125299621314</v>
+        <v>0.04367482146707524</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.290589625853201</v>
+        <v>0.3356625308367427</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.032955477463609</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.466278563365179</v>
+        <v>1.587189456850865</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.016522587460031</v>
+        <v>4.356965418975733</v>
       </c>
       <c r="C9">
-        <v>0.6936430512423328</v>
+        <v>0.6449454787879745</v>
       </c>
       <c r="D9">
-        <v>0.00727966436592542</v>
+        <v>0.08286483349773022</v>
       </c>
       <c r="E9">
-        <v>0.0248392983992618</v>
+        <v>0.0383204367152814</v>
       </c>
       <c r="F9">
-        <v>2.368663264118439</v>
+        <v>0.6863158210315987</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.2579087244344187</v>
       </c>
       <c r="J9">
-        <v>0.05092886225690307</v>
+        <v>0.03819067564121514</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3706882125888313</v>
+        <v>0.4332922990543011</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.888789330574987</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.721844182694525</v>
+        <v>1.662915953198052</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.968438211722116</v>
+        <v>5.174953649518898</v>
       </c>
       <c r="C10">
-        <v>0.8340022102231046</v>
+        <v>0.7537813875341897</v>
       </c>
       <c r="D10">
-        <v>0.008375532122759211</v>
+        <v>0.09287885950379859</v>
       </c>
       <c r="E10">
-        <v>0.02479984285935277</v>
+        <v>0.03803897988726845</v>
       </c>
       <c r="F10">
-        <v>2.651440816745236</v>
+        <v>0.7279090589781276</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.2401945087872939</v>
       </c>
       <c r="J10">
-        <v>0.04927984594740487</v>
+        <v>0.03455872174295238</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4323447677842154</v>
+        <v>0.5063257663228313</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7924441622386702</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.932545764941239</v>
+        <v>1.747989816656627</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.412431084701154</v>
+        <v>5.548980283642209</v>
       </c>
       <c r="C11">
-        <v>0.8992209972542184</v>
+        <v>0.8034734635812129</v>
       </c>
       <c r="D11">
-        <v>0.008910867738135764</v>
+        <v>0.09750078144881513</v>
       </c>
       <c r="E11">
-        <v>0.02480414271368936</v>
+        <v>0.03797586574482636</v>
       </c>
       <c r="F11">
-        <v>2.788223019684807</v>
+        <v>0.7493759647481255</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.2336689721702427</v>
       </c>
       <c r="J11">
-        <v>0.0486122332921326</v>
+        <v>0.03299832863397789</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4611810468850166</v>
+        <v>0.5399141018873479</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7509772018698477</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2.03465648738981</v>
+        <v>1.794087735635031</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.582393446447838</v>
+        <v>5.690950904014187</v>
       </c>
       <c r="C12">
-        <v>0.9241526356560996</v>
+        <v>0.8223242512387969</v>
       </c>
       <c r="D12">
-        <v>0.009120043707215864</v>
+        <v>0.09926145973673073</v>
       </c>
       <c r="E12">
-        <v>0.02480915251884408</v>
+        <v>0.03796170774660013</v>
       </c>
       <c r="F12">
-        <v>2.841346129027926</v>
+        <v>0.7579014407851048</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.2314345267664386</v>
       </c>
       <c r="J12">
-        <v>0.04837204984136001</v>
+        <v>0.03242116103449222</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4722307455792389</v>
+        <v>0.5526927380206956</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7356417730693465</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2.07434528358975</v>
+        <v>1.812698208987712</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.545703127556806</v>
+        <v>5.660359108955504</v>
       </c>
       <c r="C13">
-        <v>0.9187720675100195</v>
+        <v>0.818262784958705</v>
       </c>
       <c r="D13">
-        <v>0.00907468633728481</v>
+        <v>0.09888178607946685</v>
       </c>
       <c r="E13">
-        <v>0.02480792000496201</v>
+        <v>0.03796431689002056</v>
       </c>
       <c r="F13">
-        <v>2.829843432770076</v>
+        <v>0.7560471884074502</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.2319049588135869</v>
       </c>
       <c r="J13">
-        <v>0.04842320301455771</v>
+        <v>0.03254484558580195</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4698449252962149</v>
+        <v>0.5499378685013738</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7389277216582641</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2.065750058108847</v>
+        <v>1.808637262710334</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.426375700071219</v>
+        <v>5.56065322672174</v>
       </c>
       <c r="C14">
-        <v>0.9012672001422573</v>
+        <v>0.8050236142486256</v>
       </c>
       <c r="D14">
-        <v>0.008927940083101049</v>
+        <v>0.09764541856042541</v>
       </c>
       <c r="E14">
-        <v>0.0248044859702663</v>
+        <v>0.03797450329107477</v>
       </c>
       <c r="F14">
-        <v>2.792565943205631</v>
+        <v>0.7500692339768023</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.2334803032380783</v>
       </c>
       <c r="J14">
-        <v>0.04859221552705861</v>
+        <v>0.032950566652032</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4620874037030944</v>
+        <v>0.5409641743410134</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7497080163651049</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2.03790048402567</v>
+        <v>1.79559515587124</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.353530893588754</v>
+        <v>5.49962593150974</v>
       </c>
       <c r="C15">
-        <v>0.8905767348636289</v>
+        <v>0.7969188269200913</v>
       </c>
       <c r="D15">
-        <v>0.008838932076844941</v>
+        <v>0.09688949731508956</v>
       </c>
       <c r="E15">
-        <v>0.0248028287294817</v>
+        <v>0.03798202396362882</v>
       </c>
       <c r="F15">
-        <v>2.769910111923934</v>
+        <v>0.7464601295110782</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.2344765661271673</v>
       </c>
       <c r="J15">
-        <v>0.04869740901209241</v>
+        <v>0.0332008851965333</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4573531596768703</v>
+        <v>0.5354754876907748</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7563599611037368</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>2.020978724539532</v>
+        <v>1.787759601524499</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.939663963443763</v>
+        <v>5.150553674388618</v>
       </c>
       <c r="C16">
-        <v>0.829770681652036</v>
+        <v>0.7505381666156836</v>
       </c>
       <c r="D16">
-        <v>0.008341382852765644</v>
+        <v>0.09257821895841545</v>
       </c>
       <c r="E16">
-        <v>0.02480002458168418</v>
+        <v>0.03804444506360838</v>
       </c>
       <c r="F16">
-        <v>2.642678538515753</v>
+        <v>0.7265599175644084</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.2406531706802859</v>
       </c>
       <c r="J16">
-        <v>0.04932519966833659</v>
+        <v>0.03466258789035459</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4304774924369497</v>
+        <v>0.504138618448053</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7952039252656284</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1.926008620302909</v>
+        <v>1.745133640778135</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.688749930143956</v>
+        <v>4.936941149706172</v>
       </c>
       <c r="C17">
-        <v>0.7928441858967687</v>
+        <v>0.7221367619695513</v>
       </c>
       <c r="D17">
-        <v>0.008046354791722443</v>
+        <v>0.0899510345816168</v>
       </c>
       <c r="E17">
-        <v>0.02480412492277306</v>
+        <v>0.03809964721777703</v>
       </c>
       <c r="F17">
-        <v>2.566817052167266</v>
+        <v>0.7150247277856465</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.2448460644136041</v>
       </c>
       <c r="J17">
-        <v>0.04973198056526229</v>
+        <v>0.03558316544769147</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4142033065798216</v>
+        <v>0.4850127475485948</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8196567978210716</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1.869433009042609</v>
+        <v>1.72094087734402</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.545445566800709</v>
+        <v>4.814253762368082</v>
       </c>
       <c r="C18">
-        <v>0.7717313405138668</v>
+        <v>0.7058176898138413</v>
       </c>
       <c r="D18">
-        <v>0.007880048885495761</v>
+        <v>0.08844614843201271</v>
       </c>
       <c r="E18">
-        <v>0.02480856521177532</v>
+        <v>0.03813748295187835</v>
       </c>
       <c r="F18">
-        <v>2.523939861134224</v>
+        <v>0.7086276823595767</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.2474009358418634</v>
       </c>
       <c r="J18">
-        <v>0.04997366830588845</v>
+        <v>0.03612126497145041</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4049159260804629</v>
+        <v>0.4740459630885852</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8339418186845258</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1.837473499554363</v>
+        <v>1.707716311186942</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.497092161431283</v>
+        <v>4.77274258855573</v>
       </c>
       <c r="C19">
-        <v>0.7646035074258748</v>
+        <v>0.7002949824326095</v>
       </c>
       <c r="D19">
-        <v>0.007824289633345582</v>
+        <v>0.08793765868536951</v>
       </c>
       <c r="E19">
-        <v>0.02481042101477815</v>
+        <v>0.03815132662302112</v>
       </c>
       <c r="F19">
-        <v>2.509547847884832</v>
+        <v>0.7065016888694018</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.2482900961588683</v>
       </c>
       <c r="J19">
-        <v>0.0500568034975224</v>
+        <v>0.03630491937252978</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4017834581506889</v>
+        <v>0.4703384190589048</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8388155412564586</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1.826748936003611</v>
+        <v>1.703354643617189</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.715353380376257</v>
+        <v>4.959661849983206</v>
       </c>
       <c r="C20">
-        <v>0.7967617436482044</v>
+        <v>0.7251583644089408</v>
       </c>
       <c r="D20">
-        <v>0.008077402698982716</v>
+        <v>0.09023005481900981</v>
       </c>
       <c r="E20">
-        <v>0.02480347172392072</v>
+        <v>0.03809313823057536</v>
       </c>
       <c r="F20">
-        <v>2.574813293702647</v>
+        <v>0.71622785589134</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.2443847862350985</v>
       </c>
       <c r="J20">
-        <v>0.04968787402784258</v>
+        <v>0.03548427389196163</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4159280414566524</v>
+        <v>0.4870451708061125</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8170307498672855</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.875394586799629</v>
+        <v>1.723444143627404</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.461373147113022</v>
+        <v>5.589929680340276</v>
       </c>
       <c r="C21">
-        <v>0.9064021083132445</v>
+        <v>0.8089113097560414</v>
       </c>
       <c r="D21">
-        <v>0.008970857641735996</v>
+        <v>0.09800827838903103</v>
       </c>
       <c r="E21">
-        <v>0.02480540128021502</v>
+        <v>0.03797124353225989</v>
       </c>
       <c r="F21">
-        <v>2.803477906629155</v>
+        <v>0.7518140921721255</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.233011028870262</v>
       </c>
       <c r="J21">
-        <v>0.04854222327178981</v>
+        <v>0.03283101988732118</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4643623041556282</v>
+        <v>0.5435982937218284</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7465313784002525</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>2.046051809285146</v>
+        <v>1.799393858942636</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.959760132210533</v>
+        <v>6.003828810048219</v>
       </c>
       <c r="C22">
-        <v>0.9794476558321605</v>
+        <v>0.8638476816852858</v>
       </c>
       <c r="D22">
-        <v>0.009593088874074063</v>
+        <v>0.1031532146479606</v>
       </c>
       <c r="E22">
-        <v>0.02482647571583563</v>
+        <v>0.03794857026351117</v>
       </c>
       <c r="F22">
-        <v>2.960742742023314</v>
+        <v>0.7773981851316449</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.2269653280346517</v>
       </c>
       <c r="J22">
-        <v>0.04786749291889159</v>
+        <v>0.03117719940241859</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4967840345833565</v>
+        <v>0.5809092664881206</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7026118111450046</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.163608919052265</v>
+        <v>1.855805997500681</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.69267867047904</v>
+        <v>5.782720907763746</v>
       </c>
       <c r="C23">
-        <v>0.9403209359261382</v>
+        <v>0.8345063206953398</v>
       </c>
       <c r="D23">
-        <v>0.00925705446686198</v>
+        <v>0.1004013310008602</v>
       </c>
       <c r="E23">
-        <v>0.02481334810856328</v>
+        <v>0.03795531525069151</v>
       </c>
       <c r="F23">
-        <v>2.876035573715797</v>
+        <v>0.7635199757729794</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.2300593731661102</v>
       </c>
       <c r="J23">
-        <v>0.04822056181707701</v>
+        <v>0.03205235215891666</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4794037052568285</v>
+        <v>0.5609612002282063</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7258451593502784</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.10027126625252</v>
+        <v>1.825046167889496</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.703323022099084</v>
+        <v>4.949389447956094</v>
       </c>
       <c r="C24">
-        <v>0.7949902551288801</v>
+        <v>0.7237922696044734</v>
       </c>
       <c r="D24">
-        <v>0.00806335571674488</v>
+        <v>0.0901038926517046</v>
       </c>
       <c r="E24">
-        <v>0.02480376056063172</v>
+        <v>0.03809606197619964</v>
       </c>
       <c r="F24">
-        <v>2.571195910098851</v>
+        <v>0.7156831929369147</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.2445928817846053</v>
       </c>
       <c r="J24">
-        <v>0.04970779027972227</v>
+        <v>0.03552895524593591</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4151480755500785</v>
+        <v>0.4861262226502276</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8182172819593134</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.872697601754666</v>
+        <v>1.722310292642845</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.674149408179858</v>
+        <v>4.057068725223871</v>
       </c>
       <c r="C25">
-        <v>0.6429406188046869</v>
+        <v>0.6049816597912923</v>
       </c>
       <c r="D25">
-        <v>0.006901942963713381</v>
+        <v>0.07923042565770544</v>
       </c>
       <c r="E25">
-        <v>0.02487246881776084</v>
+        <v>0.03847909288936435</v>
       </c>
       <c r="F25">
-        <v>2.270814480282425</v>
+        <v>0.673066592484318</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.2656898132442791</v>
       </c>
       <c r="J25">
-        <v>0.05160472517338555</v>
+        <v>0.03960632794501517</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3485811807797461</v>
+        <v>0.406677148899206</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9261966170035869</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.649073527842461</v>
+        <v>1.637580957850957</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_9/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.403601919396976</v>
+        <v>1.62515303497554</v>
       </c>
       <c r="C2">
-        <v>0.517768102399998</v>
+        <v>0.1858221518902496</v>
       </c>
       <c r="D2">
-        <v>0.07139381915398957</v>
+        <v>0.1330609785644725</v>
       </c>
       <c r="E2">
-        <v>0.03894618050198684</v>
+        <v>0.1137359540516814</v>
       </c>
       <c r="F2">
-        <v>0.6483894673218842</v>
+        <v>1.471928477265322</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>0.2853435002556601</v>
+        <v>0.8647057324364056</v>
       </c>
       <c r="J2">
-        <v>0.04287305676248332</v>
+        <v>0.1314700272971461</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3490279474901001</v>
+        <v>0.3616644208880757</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.594587422431971</v>
+        <v>3.715882654557362</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.962018294609948</v>
+        <v>1.48849865732393</v>
       </c>
       <c r="C3">
-        <v>0.4587133363421287</v>
+        <v>0.1663086030168017</v>
       </c>
       <c r="D3">
-        <v>0.06617433735132749</v>
+        <v>0.1320441260592986</v>
       </c>
       <c r="E3">
-        <v>0.03937182491496927</v>
+        <v>0.1145093657757812</v>
       </c>
       <c r="F3">
-        <v>0.6353799423310278</v>
+        <v>1.483164092666136</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>0.3009863807398467</v>
+        <v>0.8782526259561507</v>
       </c>
       <c r="J3">
-        <v>0.04524422685729457</v>
+        <v>0.1329526615391807</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3103777519828412</v>
+        <v>0.3517483801029186</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.576164616426325</v>
+        <v>3.751506263169773</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.691238044698366</v>
+        <v>1.404576991406657</v>
       </c>
       <c r="C4">
-        <v>0.4224446136226447</v>
+        <v>0.1542672123198372</v>
       </c>
       <c r="D4">
-        <v>0.06301040980918771</v>
+        <v>0.131452016654066</v>
       </c>
       <c r="E4">
-        <v>0.03968502206404168</v>
+        <v>0.1150229574208899</v>
       </c>
       <c r="F4">
-        <v>0.6290816975453097</v>
+        <v>1.490983473710244</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>0.311661408040667</v>
+        <v>0.8871437396527604</v>
       </c>
       <c r="J4">
-        <v>0.04677530160666543</v>
+        <v>0.133913938860216</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2868201813743951</v>
+        <v>0.345762628437825</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.569715148422773</v>
+        <v>3.775907542300246</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.580945625379059</v>
+        <v>1.370376729839222</v>
       </c>
       <c r="C5">
-        <v>0.407658177638325</v>
+        <v>0.1493454704450699</v>
       </c>
       <c r="D5">
-        <v>0.06173078896306805</v>
+        <v>0.1312188800539928</v>
       </c>
       <c r="E5">
-        <v>0.0398254131903828</v>
+        <v>0.1152420000337138</v>
       </c>
       <c r="F5">
-        <v>0.6269200240163642</v>
+        <v>1.494401347214598</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.3162699633140669</v>
+        <v>0.8909109525795458</v>
       </c>
       <c r="J5">
-        <v>0.04741778030435784</v>
+        <v>0.1343184849281522</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2772595639171413</v>
+        <v>0.3433494274882349</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.568250286746775</v>
+        <v>3.78648643188248</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.562633825635032</v>
+        <v>1.364697781428106</v>
       </c>
       <c r="C6">
-        <v>0.405202377575165</v>
+        <v>0.1485273355704351</v>
       </c>
       <c r="D6">
-        <v>0.06151887912868403</v>
+        <v>0.1311806616425528</v>
       </c>
       <c r="E6">
-        <v>0.03984948786776688</v>
+        <v>0.1152789611994285</v>
       </c>
       <c r="F6">
-        <v>0.6265849704019644</v>
+        <v>1.494982856386834</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.3170505130333012</v>
+        <v>0.8915451892553783</v>
       </c>
       <c r="J6">
-        <v>0.04752557409560865</v>
+        <v>0.1343864339507235</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2756742791730034</v>
+        <v>0.3429502962744664</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.568075633412604</v>
+        <v>3.788281394248543</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.689750435184067</v>
+        <v>1.404115757664783</v>
       </c>
       <c r="C7">
-        <v>0.4222452310468157</v>
+        <v>0.154200895409474</v>
       </c>
       <c r="D7">
-        <v>0.06299311382427675</v>
+        <v>0.1314488394216369</v>
       </c>
       <c r="E7">
-        <v>0.03968686411747591</v>
+        <v>0.1150258720093955</v>
       </c>
       <c r="F7">
-        <v>0.6290509306488872</v>
+        <v>1.491028631499567</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>0.3117225281896445</v>
+        <v>0.8871939626932743</v>
       </c>
       <c r="J7">
-        <v>0.04678389162548746</v>
+        <v>0.1339193427981489</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2866910901345818</v>
+        <v>0.3457299774483005</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.569690758622741</v>
+        <v>3.776047641897321</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.251247714855083</v>
+        <v>1.578039149006656</v>
       </c>
       <c r="C8">
-        <v>0.4974050864380217</v>
+        <v>0.1791065100538276</v>
       </c>
       <c r="D8">
-        <v>0.06958530789343342</v>
+        <v>0.1327037025413276</v>
       </c>
       <c r="E8">
-        <v>0.03908201057342531</v>
+        <v>0.1139946003789012</v>
       </c>
       <c r="F8">
-        <v>0.6435407620992919</v>
+        <v>1.475611373455699</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>0.2905084232891078</v>
+        <v>0.8692576367297775</v>
       </c>
       <c r="J8">
-        <v>0.04367482146707524</v>
+        <v>0.1319706744064132</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3356625308367427</v>
+        <v>0.3582241672246624</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.587189456850865</v>
+        <v>3.727640591528683</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.356965418975733</v>
+        <v>1.918894934819832</v>
       </c>
       <c r="C9">
-        <v>0.6449454787879745</v>
+        <v>0.2274591484837742</v>
       </c>
       <c r="D9">
-        <v>0.08286483349773022</v>
+        <v>0.1354185305523501</v>
       </c>
       <c r="E9">
-        <v>0.0383204367152814</v>
+        <v>0.1122787943206909</v>
       </c>
       <c r="F9">
-        <v>0.6863158210315987</v>
+        <v>1.452688390071152</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>0.2579087244344187</v>
+        <v>0.838639107783866</v>
       </c>
       <c r="J9">
-        <v>0.03819067564121514</v>
+        <v>0.1285529823016447</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4332922990543011</v>
+        <v>0.3835328042511748</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.662915953198052</v>
+        <v>3.652802128671567</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.174953649518898</v>
+        <v>2.169105577986045</v>
       </c>
       <c r="C10">
-        <v>0.7537813875341897</v>
+        <v>0.2626752770323151</v>
       </c>
       <c r="D10">
-        <v>0.09287885950379859</v>
+        <v>0.1375658956395753</v>
       </c>
       <c r="E10">
-        <v>0.03803897988726845</v>
+        <v>0.1112041559391592</v>
       </c>
       <c r="F10">
-        <v>0.7279090589781276</v>
+        <v>1.440311556566556</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>0.2401945087872939</v>
+        <v>0.8189279029201124</v>
       </c>
       <c r="J10">
-        <v>0.03455872174295238</v>
+        <v>0.1262873216944915</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5063257663228313</v>
+        <v>0.4026113619403588</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.747989816656627</v>
+        <v>3.610103593473184</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.548980283642209</v>
+        <v>2.282868830489917</v>
       </c>
       <c r="C11">
-        <v>0.8034734635812129</v>
+        <v>0.2786268128057827</v>
       </c>
       <c r="D11">
-        <v>0.09750078144881513</v>
+        <v>0.1385755415547436</v>
       </c>
       <c r="E11">
-        <v>0.03797586574482636</v>
+        <v>0.110755466858242</v>
       </c>
       <c r="F11">
-        <v>0.7493759647481255</v>
+        <v>1.435652315916258</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>0.2336689721702427</v>
+        <v>0.8105669614605233</v>
       </c>
       <c r="J11">
-        <v>0.03299832863397789</v>
+        <v>0.1253097210512319</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5399141018873479</v>
+        <v>0.4113943097949715</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.794087735635031</v>
+        <v>3.593355146968548</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.690950904014187</v>
+        <v>2.325937589928742</v>
       </c>
       <c r="C12">
-        <v>0.8223242512387969</v>
+        <v>0.2846571441912431</v>
       </c>
       <c r="D12">
-        <v>0.09926145973673073</v>
+        <v>0.1389625437587227</v>
       </c>
       <c r="E12">
-        <v>0.03796170774660013</v>
+        <v>0.1105913215113077</v>
       </c>
       <c r="F12">
-        <v>0.7579014407851048</v>
+        <v>1.434027754013186</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>0.2314345267664386</v>
+        <v>0.8074881550827833</v>
       </c>
       <c r="J12">
-        <v>0.03242116103449222</v>
+        <v>0.1249471488524125</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5526927380206956</v>
+        <v>0.4147349662544428</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.812698208987712</v>
+        <v>3.587398342472483</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.660359108955504</v>
+        <v>2.31666248632223</v>
       </c>
       <c r="C13">
-        <v>0.818262784958705</v>
+        <v>0.2833588618400711</v>
       </c>
       <c r="D13">
-        <v>0.09888178607946685</v>
+        <v>0.1388789888743887</v>
       </c>
       <c r="E13">
-        <v>0.03796431689002056</v>
+        <v>0.1106264170206952</v>
       </c>
       <c r="F13">
-        <v>0.7560471884074502</v>
+        <v>1.434371412743658</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>0.2319049588135869</v>
+        <v>0.8081473453840466</v>
       </c>
       <c r="J13">
-        <v>0.03254484558580195</v>
+        <v>0.1250248962797762</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5499378685013738</v>
+        <v>0.4140148437109872</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.808637262710334</v>
+        <v>3.588664091021258</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.56065322672174</v>
+        <v>2.286412356000824</v>
       </c>
       <c r="C14">
-        <v>0.8050236142486256</v>
+        <v>0.2791231374507959</v>
       </c>
       <c r="D14">
-        <v>0.09764541856042541</v>
+        <v>0.1386072870991129</v>
       </c>
       <c r="E14">
-        <v>0.03797450329107477</v>
+        <v>0.1107418470865351</v>
       </c>
       <c r="F14">
-        <v>0.7500692339768023</v>
+        <v>1.435515859709767</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>0.2334803032380783</v>
+        <v>0.8103119154856238</v>
       </c>
       <c r="J14">
-        <v>0.032950566652032</v>
+        <v>0.1252797392568534</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5409641743410134</v>
+        <v>0.4116688533201369</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.79559515587124</v>
+        <v>3.59285734737341</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.49962593150974</v>
+        <v>2.267881783702705</v>
       </c>
       <c r="C15">
-        <v>0.7969188269200913</v>
+        <v>0.2765273000628952</v>
       </c>
       <c r="D15">
-        <v>0.09688949731508956</v>
+        <v>0.1384414689088516</v>
       </c>
       <c r="E15">
-        <v>0.03798202396362882</v>
+        <v>0.1108133015288182</v>
       </c>
       <c r="F15">
-        <v>0.7464601295110782</v>
+        <v>1.436235076118408</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>0.2344765661271673</v>
+        <v>0.8116491519248825</v>
       </c>
       <c r="J15">
-        <v>0.0332008851965333</v>
+        <v>0.1254368306267748</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5354754876907748</v>
+        <v>0.4102337803747531</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.787759601524499</v>
+        <v>3.59547605984838</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.150553674388618</v>
+        <v>2.161669487703932</v>
       </c>
       <c r="C16">
-        <v>0.7505381666156836</v>
+        <v>0.2616314012662428</v>
       </c>
       <c r="D16">
-        <v>0.09257821895841545</v>
+        <v>0.1375005690288518</v>
       </c>
       <c r="E16">
-        <v>0.03804444506360838</v>
+        <v>0.111234286037357</v>
       </c>
       <c r="F16">
-        <v>0.7265599175644084</v>
+        <v>1.440635602181956</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>0.2406531706802859</v>
+        <v>0.819486516255381</v>
       </c>
       <c r="J16">
-        <v>0.03466258789035459</v>
+        <v>0.1263522773797019</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.504138618448053</v>
+        <v>0.4020394505036222</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.745133640778135</v>
+        <v>3.611252043332968</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.936941149706172</v>
+        <v>2.096494863185853</v>
       </c>
       <c r="C17">
-        <v>0.7221367619695513</v>
+        <v>0.2524754839970456</v>
       </c>
       <c r="D17">
-        <v>0.0899510345816168</v>
+        <v>0.1369317257235849</v>
       </c>
       <c r="E17">
-        <v>0.03809964721777703</v>
+        <v>0.1115028255791959</v>
       </c>
       <c r="F17">
-        <v>0.7150247277856465</v>
+        <v>1.443584001595212</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>0.2448460644136041</v>
+        <v>0.8244497763617211</v>
       </c>
       <c r="J17">
-        <v>0.03558316544769147</v>
+        <v>0.1269274598907597</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4850127475485948</v>
+        <v>0.3970389838449933</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.72094087734402</v>
+        <v>3.621615856110992</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.814253762368082</v>
+        <v>2.059002751585695</v>
       </c>
       <c r="C18">
-        <v>0.7058176898138413</v>
+        <v>0.2472028182027373</v>
       </c>
       <c r="D18">
-        <v>0.08844614843201271</v>
+        <v>0.1366076319622422</v>
       </c>
       <c r="E18">
-        <v>0.03813748295187835</v>
+        <v>0.1116610641107858</v>
       </c>
       <c r="F18">
-        <v>0.7086276823595767</v>
+        <v>1.445371232821472</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>0.2474009358418634</v>
+        <v>0.8273615202789379</v>
       </c>
       <c r="J18">
-        <v>0.03612126497145041</v>
+        <v>0.1272632842406973</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4740459630885852</v>
+        <v>0.3941726508161878</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.707716311186942</v>
+        <v>3.627828616754186</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.77274258855573</v>
+        <v>2.046307716041781</v>
       </c>
       <c r="C19">
-        <v>0.7002949824326095</v>
+        <v>0.2454164907250345</v>
       </c>
       <c r="D19">
-        <v>0.08793765868536951</v>
+        <v>0.1364984314523809</v>
       </c>
       <c r="E19">
-        <v>0.03815132662302112</v>
+        <v>0.1117152908591805</v>
       </c>
       <c r="F19">
-        <v>0.7065016888694018</v>
+        <v>1.445992050116431</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>0.2482900961588683</v>
+        <v>0.8283571721349787</v>
       </c>
       <c r="J19">
-        <v>0.03630491937252978</v>
+        <v>0.1273778466038582</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4703384190589048</v>
+        <v>0.3932038499031307</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.703354643617189</v>
+        <v>3.629975369257721</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.959661849983206</v>
+        <v>2.103433389079896</v>
       </c>
       <c r="C20">
-        <v>0.7251583644089408</v>
+        <v>0.2534508142800576</v>
       </c>
       <c r="D20">
-        <v>0.09023005481900981</v>
+        <v>0.1369919606047674</v>
       </c>
       <c r="E20">
-        <v>0.03809313823057536</v>
+        <v>0.1114738477890249</v>
       </c>
       <c r="F20">
-        <v>0.71622785589134</v>
+        <v>1.443260679795756</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>0.2443847862350985</v>
+        <v>0.8239155273623027</v>
       </c>
       <c r="J20">
-        <v>0.03548427389196163</v>
+        <v>0.1268657138533538</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4870451708061125</v>
+        <v>0.3975702790150564</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.723444143627404</v>
+        <v>3.620486547815972</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.589929680340276</v>
+        <v>2.295297868255545</v>
       </c>
       <c r="C21">
-        <v>0.8089113097560414</v>
+        <v>0.2803675509376831</v>
       </c>
       <c r="D21">
-        <v>0.09800827838903103</v>
+        <v>0.1386869660801082</v>
       </c>
       <c r="E21">
-        <v>0.03797124353225989</v>
+        <v>0.1107077861611803</v>
       </c>
       <c r="F21">
-        <v>0.7518140921721255</v>
+        <v>1.435175912752655</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>0.233011028870262</v>
+        <v>0.8096737579509146</v>
       </c>
       <c r="J21">
-        <v>0.03283101988732118</v>
+        <v>0.1252046788323584</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5435982937218284</v>
+        <v>0.4123575290863926</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.799393858942636</v>
+        <v>3.591615218791958</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.003828810048219</v>
+        <v>2.420627649643507</v>
       </c>
       <c r="C22">
-        <v>0.8638476816852858</v>
+        <v>0.2978997729861135</v>
       </c>
       <c r="D22">
-        <v>0.1031532146479606</v>
+        <v>0.1398219567277863</v>
       </c>
       <c r="E22">
-        <v>0.03794857026351117</v>
+        <v>0.110240708599143</v>
       </c>
       <c r="F22">
-        <v>0.7773981851316449</v>
+        <v>1.430706933339806</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>0.2269653280346517</v>
+        <v>0.8008748814609454</v>
       </c>
       <c r="J22">
-        <v>0.03117719940241859</v>
+        <v>0.1241635319386583</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5809092664881206</v>
+        <v>0.422107697588757</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.855805997500681</v>
+        <v>3.57499329291673</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.782720907763746</v>
+        <v>2.353743516891029</v>
       </c>
       <c r="C23">
-        <v>0.8345063206953398</v>
+        <v>0.2885480397065123</v>
       </c>
       <c r="D23">
-        <v>0.1004013310008602</v>
+        <v>0.1392137163239227</v>
       </c>
       <c r="E23">
-        <v>0.03795531525069151</v>
+        <v>0.11048692760634</v>
       </c>
       <c r="F23">
-        <v>0.7635199757729794</v>
+        <v>1.433017498439753</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>0.2300593731661102</v>
+        <v>0.8055243765186511</v>
       </c>
       <c r="J23">
-        <v>0.03205235215891666</v>
+        <v>0.1247151477217905</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5609612002282063</v>
+        <v>0.4168960641976156</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.825046167889496</v>
+        <v>3.58365886258872</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.949389447956094</v>
+        <v>2.100296550960934</v>
       </c>
       <c r="C24">
-        <v>0.7237922696044734</v>
+        <v>0.2530098948702175</v>
       </c>
       <c r="D24">
-        <v>0.0901038926517046</v>
+        <v>0.1369647192487093</v>
       </c>
       <c r="E24">
-        <v>0.03809606197619964</v>
+        <v>0.1114869366499089</v>
       </c>
       <c r="F24">
-        <v>0.7156831929369147</v>
+        <v>1.44340656652723</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>0.2445928817846053</v>
+        <v>0.8241568797472638</v>
       </c>
       <c r="J24">
-        <v>0.03552895524593591</v>
+        <v>0.1268936132127096</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4861262226502276</v>
+        <v>0.3973300539720412</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.722310292642845</v>
+        <v>3.620996315496939</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.057068725223871</v>
+        <v>1.826715976498406</v>
       </c>
       <c r="C25">
-        <v>0.6049816597912923</v>
+        <v>0.2144318424828384</v>
       </c>
       <c r="D25">
-        <v>0.07923042565770544</v>
+        <v>0.1346571176349443</v>
       </c>
       <c r="E25">
-        <v>0.03847909288936435</v>
+        <v>0.1127102435519678</v>
       </c>
       <c r="F25">
-        <v>0.673066592484318</v>
+        <v>1.458106206644224</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>0.2656898132442791</v>
+        <v>0.8464338436636609</v>
       </c>
       <c r="J25">
-        <v>0.03960632794501517</v>
+        <v>0.1294344242990055</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.406677148899206</v>
+        <v>0.3766005252823987</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.637580957850957</v>
+        <v>3.670893321681689</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_9/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.62515303497554</v>
+        <v>3.40360191939692</v>
       </c>
       <c r="C2">
-        <v>0.1858221518902496</v>
+        <v>0.5177681023997422</v>
       </c>
       <c r="D2">
-        <v>0.1330609785644725</v>
+        <v>0.07139381915397536</v>
       </c>
       <c r="E2">
-        <v>0.1137359540516814</v>
+        <v>0.03894618050198417</v>
       </c>
       <c r="F2">
-        <v>1.471928477265322</v>
+        <v>0.6483894673219055</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
-        <v>0.8647057324364056</v>
+        <v>0.2853435002556886</v>
       </c>
       <c r="J2">
-        <v>0.1314700272971461</v>
+        <v>0.04287305676248865</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3616644208880757</v>
+        <v>0.349027947490157</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.715882654557362</v>
+        <v>1.594587422431999</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.48849865732393</v>
+        <v>2.962018294610232</v>
       </c>
       <c r="C3">
-        <v>0.1663086030168017</v>
+        <v>0.4587133363420719</v>
       </c>
       <c r="D3">
-        <v>0.1320441260592986</v>
+        <v>0.06617433735138434</v>
       </c>
       <c r="E3">
-        <v>0.1145093657757812</v>
+        <v>0.03937182491495328</v>
       </c>
       <c r="F3">
-        <v>1.483164092666136</v>
+        <v>0.635379942331042</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0.8782526259561507</v>
+        <v>0.3009863807398574</v>
       </c>
       <c r="J3">
-        <v>0.1329526615391807</v>
+        <v>0.04524422685732787</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3517483801029186</v>
+        <v>0.3103777519827986</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.751506263169773</v>
+        <v>1.576164616426468</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.404576991406657</v>
+        <v>2.691238044698366</v>
       </c>
       <c r="C4">
-        <v>0.1542672123198372</v>
+        <v>0.4224446136222753</v>
       </c>
       <c r="D4">
-        <v>0.131452016654066</v>
+        <v>0.06301040980928008</v>
       </c>
       <c r="E4">
-        <v>0.1150229574208899</v>
+        <v>0.03968502206402214</v>
       </c>
       <c r="F4">
-        <v>1.490983473710244</v>
+        <v>0.6290816975453026</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0.8871437396527604</v>
+        <v>0.3116614080406741</v>
       </c>
       <c r="J4">
-        <v>0.133913938860216</v>
+        <v>0.04677530160667587</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.345762628437825</v>
+        <v>0.2868201813743099</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.775907542300246</v>
+        <v>1.569715148422802</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.370376729839222</v>
+        <v>2.580945625378945</v>
       </c>
       <c r="C5">
-        <v>0.1493454704450699</v>
+        <v>0.4076581776380408</v>
       </c>
       <c r="D5">
-        <v>0.1312188800539928</v>
+        <v>0.06173078896318174</v>
       </c>
       <c r="E5">
-        <v>0.1152420000337138</v>
+        <v>0.03982541319038191</v>
       </c>
       <c r="F5">
-        <v>1.494401347214598</v>
+        <v>0.626920024016357</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0.8909109525795458</v>
+        <v>0.3162699633140633</v>
       </c>
       <c r="J5">
-        <v>0.1343184849281522</v>
+        <v>0.04741778030440957</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3433494274882349</v>
+        <v>0.2772595639171982</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.78648643188248</v>
+        <v>1.568250286746789</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.364697781428106</v>
+        <v>2.562633825634919</v>
       </c>
       <c r="C6">
-        <v>0.1485273355704351</v>
+        <v>0.4052023775753923</v>
       </c>
       <c r="D6">
-        <v>0.1311806616425528</v>
+        <v>0.06151887912867693</v>
       </c>
       <c r="E6">
-        <v>0.1152789611994285</v>
+        <v>0.03984948786776421</v>
       </c>
       <c r="F6">
-        <v>1.494982856386834</v>
+        <v>0.6265849704019715</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0.8915451892553783</v>
+        <v>0.3170505130332835</v>
       </c>
       <c r="J6">
-        <v>0.1343864339507235</v>
+        <v>0.04752557409557001</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3429502962744664</v>
+        <v>0.2756742791729181</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.788281394248543</v>
+        <v>1.56807563341259</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.404115757664783</v>
+        <v>2.689750435184123</v>
       </c>
       <c r="C7">
-        <v>0.154200895409474</v>
+        <v>0.4222452310463041</v>
       </c>
       <c r="D7">
-        <v>0.1314488394216369</v>
+        <v>0.0629931138242199</v>
       </c>
       <c r="E7">
-        <v>0.1150258720093955</v>
+        <v>0.03968686411746525</v>
       </c>
       <c r="F7">
-        <v>1.491028631499567</v>
+        <v>0.6290509306488943</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0.8871939626932743</v>
+        <v>0.3117225281896481</v>
       </c>
       <c r="J7">
-        <v>0.1339193427981489</v>
+        <v>0.04678389162548768</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3457299774483005</v>
+        <v>0.2866910901346529</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.776047641897321</v>
+        <v>1.569690758622627</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.578039149006656</v>
+        <v>3.251247714855083</v>
       </c>
       <c r="C8">
-        <v>0.1791065100538276</v>
+        <v>0.4974050864380501</v>
       </c>
       <c r="D8">
-        <v>0.1327037025413276</v>
+        <v>0.06958530789342632</v>
       </c>
       <c r="E8">
-        <v>0.1139946003789012</v>
+        <v>0.03908201057338001</v>
       </c>
       <c r="F8">
-        <v>1.475611373455699</v>
+        <v>0.6435407620992919</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0.8692576367297775</v>
+        <v>0.2905084232891113</v>
       </c>
       <c r="J8">
-        <v>0.1319706744064132</v>
+        <v>0.04367482146695756</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3582241672246624</v>
+        <v>0.335662530836828</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.727640591528683</v>
+        <v>1.587189456850922</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.918894934819832</v>
+        <v>4.356965418975676</v>
       </c>
       <c r="C9">
-        <v>0.2274591484837742</v>
+        <v>0.6449454787880313</v>
       </c>
       <c r="D9">
-        <v>0.1354185305523501</v>
+        <v>0.08286483349768048</v>
       </c>
       <c r="E9">
-        <v>0.1122787943206909</v>
+        <v>0.03832043671529561</v>
       </c>
       <c r="F9">
-        <v>1.452688390071152</v>
+        <v>0.6863158210315845</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0.838639107783866</v>
+        <v>0.2579087244344187</v>
       </c>
       <c r="J9">
-        <v>0.1285529823016447</v>
+        <v>0.03819067564117762</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3835328042511748</v>
+        <v>0.4332922990542585</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.652802128671567</v>
+        <v>1.662915953198024</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.169105577986045</v>
+        <v>5.174953649518727</v>
       </c>
       <c r="C10">
-        <v>0.2626752770323151</v>
+        <v>0.7537813875341897</v>
       </c>
       <c r="D10">
-        <v>0.1375658956395753</v>
+        <v>0.09287885950368491</v>
       </c>
       <c r="E10">
-        <v>0.1112041559391592</v>
+        <v>0.03803897988728089</v>
       </c>
       <c r="F10">
-        <v>1.440311556566556</v>
+        <v>0.7279090589781276</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0.8189279029201124</v>
+        <v>0.2401945087872974</v>
       </c>
       <c r="J10">
-        <v>0.1262873216944915</v>
+        <v>0.03455872174298302</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4026113619403588</v>
+        <v>0.5063257663228882</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.610103593473184</v>
+        <v>1.747989816656627</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.282868830489917</v>
+        <v>5.548980283642607</v>
       </c>
       <c r="C11">
-        <v>0.2786268128057827</v>
+        <v>0.8034734635811844</v>
       </c>
       <c r="D11">
-        <v>0.1385755415547436</v>
+        <v>0.0975007814486446</v>
       </c>
       <c r="E11">
-        <v>0.110755466858242</v>
+        <v>0.03797586574483525</v>
       </c>
       <c r="F11">
-        <v>1.435652315916258</v>
+        <v>0.7493759647481255</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0.8105669614605233</v>
+        <v>0.2336689721702463</v>
       </c>
       <c r="J11">
-        <v>0.1253097210512319</v>
+        <v>0.03299832863403895</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4113943097949715</v>
+        <v>0.5399141018872484</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.593355146968548</v>
+        <v>1.794087735635202</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.325937589928742</v>
+        <v>5.690950904014244</v>
       </c>
       <c r="C12">
-        <v>0.2846571441912431</v>
+        <v>0.8223242512388254</v>
       </c>
       <c r="D12">
-        <v>0.1389625437587227</v>
+        <v>0.09926145973660283</v>
       </c>
       <c r="E12">
-        <v>0.1105913215113077</v>
+        <v>0.03796170774660723</v>
       </c>
       <c r="F12">
-        <v>1.434027754013186</v>
+        <v>0.7579014407850906</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>0.8074881550827833</v>
+        <v>0.2314345267664386</v>
       </c>
       <c r="J12">
-        <v>0.1249471488524125</v>
+        <v>0.03242116103447024</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4147349662544428</v>
+        <v>0.5526927380207098</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.587398342472483</v>
+        <v>1.812698208987683</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.31666248632223</v>
+        <v>5.660359108955447</v>
       </c>
       <c r="C13">
-        <v>0.2833588618400711</v>
+        <v>0.8182627849587618</v>
       </c>
       <c r="D13">
-        <v>0.1388789888743887</v>
+        <v>0.09888178607934606</v>
       </c>
       <c r="E13">
-        <v>0.1106264170206952</v>
+        <v>0.03796431689003299</v>
       </c>
       <c r="F13">
-        <v>1.434371412743658</v>
+        <v>0.7560471884074502</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0.8081473453840466</v>
+        <v>0.2319049588135584</v>
       </c>
       <c r="J13">
-        <v>0.1250248962797762</v>
+        <v>0.03254484558578752</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4140148437109872</v>
+        <v>0.549937868501317</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.588664091021258</v>
+        <v>1.808637262710391</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.286412356000824</v>
+        <v>5.560653226721968</v>
       </c>
       <c r="C14">
-        <v>0.2791231374507959</v>
+        <v>0.8050236142484835</v>
       </c>
       <c r="D14">
-        <v>0.1386072870991129</v>
+        <v>0.09764541856048226</v>
       </c>
       <c r="E14">
-        <v>0.1107418470865351</v>
+        <v>0.03797450329108365</v>
       </c>
       <c r="F14">
-        <v>1.435515859709767</v>
+        <v>0.750069233976788</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0.8103119154856238</v>
+        <v>0.2334803032380748</v>
       </c>
       <c r="J14">
-        <v>0.1252797392568534</v>
+        <v>0.03295056665204754</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4116688533201369</v>
+        <v>0.5409641743409992</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.59285734737341</v>
+        <v>1.79559515587124</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.267881783702705</v>
+        <v>5.49962593150974</v>
       </c>
       <c r="C15">
-        <v>0.2765273000628952</v>
+        <v>0.7969188269203471</v>
       </c>
       <c r="D15">
-        <v>0.1384414689088516</v>
+        <v>0.09688949731513219</v>
       </c>
       <c r="E15">
-        <v>0.1108133015288182</v>
+        <v>0.03798202396363948</v>
       </c>
       <c r="F15">
-        <v>1.436235076118408</v>
+        <v>0.7464601295110782</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0.8116491519248825</v>
+        <v>0.2344765661271602</v>
       </c>
       <c r="J15">
-        <v>0.1254368306267748</v>
+        <v>0.03320088519657904</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4102337803747531</v>
+        <v>0.5354754876906895</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.59547605984838</v>
+        <v>1.787759601524357</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.161669487703932</v>
+        <v>5.150553674388561</v>
       </c>
       <c r="C16">
-        <v>0.2616314012662428</v>
+        <v>0.7505381666152289</v>
       </c>
       <c r="D16">
-        <v>0.1375005690288518</v>
+        <v>0.09257821895823781</v>
       </c>
       <c r="E16">
-        <v>0.111234286037357</v>
+        <v>0.03804444506359239</v>
       </c>
       <c r="F16">
-        <v>1.440635602181956</v>
+        <v>0.7265599175644084</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0.819486516255381</v>
+        <v>0.2406531706802859</v>
       </c>
       <c r="J16">
-        <v>0.1263522773797019</v>
+        <v>0.03466258789040744</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4020394505036222</v>
+        <v>0.5041386184480956</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.611252043332968</v>
+        <v>1.745133640778192</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.096494863185853</v>
+        <v>4.936941149706172</v>
       </c>
       <c r="C17">
-        <v>0.2524754839970456</v>
+        <v>0.7221367619697219</v>
       </c>
       <c r="D17">
-        <v>0.1369317257235849</v>
+        <v>0.08995103458171627</v>
       </c>
       <c r="E17">
-        <v>0.1115028255791959</v>
+        <v>0.03809964721775749</v>
       </c>
       <c r="F17">
-        <v>1.443584001595212</v>
+        <v>0.7150247277856394</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0.8244497763617211</v>
+        <v>0.2448460644136006</v>
       </c>
       <c r="J17">
-        <v>0.1269274598907597</v>
+        <v>0.03558316544769635</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3970389838449933</v>
+        <v>0.4850127475485948</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.621615856110992</v>
+        <v>1.720940877344106</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.059002751585695</v>
+        <v>4.814253762368139</v>
       </c>
       <c r="C18">
-        <v>0.2472028182027373</v>
+        <v>0.7058176898140118</v>
       </c>
       <c r="D18">
-        <v>0.1366076319622422</v>
+        <v>0.08844614843201271</v>
       </c>
       <c r="E18">
-        <v>0.1116610641107858</v>
+        <v>0.03813748295187835</v>
       </c>
       <c r="F18">
-        <v>1.445371232821472</v>
+        <v>0.7086276823595767</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0.8273615202789379</v>
+        <v>0.2474009358418598</v>
       </c>
       <c r="J18">
-        <v>0.1272632842406973</v>
+        <v>0.03612126497142265</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3941726508161878</v>
+        <v>0.4740459630885141</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.627828616754186</v>
+        <v>1.707716311186942</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.046307716041781</v>
+        <v>4.772742588555843</v>
       </c>
       <c r="C19">
-        <v>0.2454164907250345</v>
+        <v>0.7002949824326095</v>
       </c>
       <c r="D19">
-        <v>0.1364984314523809</v>
+        <v>0.08793765868524872</v>
       </c>
       <c r="E19">
-        <v>0.1117152908591805</v>
+        <v>0.03815132662301934</v>
       </c>
       <c r="F19">
-        <v>1.445992050116431</v>
+        <v>0.706501688869416</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0.8283571721349787</v>
+        <v>0.2482900961588825</v>
       </c>
       <c r="J19">
-        <v>0.1273778466038582</v>
+        <v>0.03630491937248737</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3932038499031307</v>
+        <v>0.470338419058919</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.629975369257721</v>
+        <v>1.70335464361716</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.103433389079896</v>
+        <v>4.959661849983263</v>
       </c>
       <c r="C20">
-        <v>0.2534508142800576</v>
+        <v>0.7251583644086281</v>
       </c>
       <c r="D20">
-        <v>0.1369919606047674</v>
+        <v>0.0902300548189956</v>
       </c>
       <c r="E20">
-        <v>0.1114738477890249</v>
+        <v>0.03809313823060201</v>
       </c>
       <c r="F20">
-        <v>1.443260679795756</v>
+        <v>0.71622785589134</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0.8239155273623027</v>
+        <v>0.2443847862350843</v>
       </c>
       <c r="J20">
-        <v>0.1268657138533538</v>
+        <v>0.03548427389187037</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3975702790150564</v>
+        <v>0.4870451708061125</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.620486547815972</v>
+        <v>1.723444143627376</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.295297868255545</v>
+        <v>5.589929680340106</v>
       </c>
       <c r="C21">
-        <v>0.2803675509376831</v>
+        <v>0.8089113097562119</v>
       </c>
       <c r="D21">
-        <v>0.1386869660801082</v>
+        <v>0.09800827838896708</v>
       </c>
       <c r="E21">
-        <v>0.1107077861611803</v>
+        <v>0.03797124353226877</v>
       </c>
       <c r="F21">
-        <v>1.435175912752655</v>
+        <v>0.7518140921721113</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0.8096737579509146</v>
+        <v>0.2330110288702549</v>
       </c>
       <c r="J21">
-        <v>0.1252046788323584</v>
+        <v>0.03283101988740711</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4123575290863926</v>
+        <v>0.5435982937217574</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.591615218791958</v>
+        <v>1.799393858942693</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.420627649643507</v>
+        <v>6.003828810047935</v>
       </c>
       <c r="C22">
-        <v>0.2978997729861135</v>
+        <v>0.8638476816854848</v>
       </c>
       <c r="D22">
-        <v>0.1398219567277863</v>
+        <v>0.1031532146481808</v>
       </c>
       <c r="E22">
-        <v>0.110240708599143</v>
+        <v>0.03794857026349518</v>
       </c>
       <c r="F22">
-        <v>1.430706933339806</v>
+        <v>0.7773981851316307</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0.8008748814609454</v>
+        <v>0.2269653280346446</v>
       </c>
       <c r="J22">
-        <v>0.1241635319386583</v>
+        <v>0.03117719940237018</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.422107697588757</v>
+        <v>0.5809092664880922</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.57499329291673</v>
+        <v>1.855805997500767</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.353743516891029</v>
+        <v>5.78272090776386</v>
       </c>
       <c r="C23">
-        <v>0.2885480397065123</v>
+        <v>0.8345063206946293</v>
       </c>
       <c r="D23">
-        <v>0.1392137163239227</v>
+        <v>0.1004013310006755</v>
       </c>
       <c r="E23">
-        <v>0.11048692760634</v>
+        <v>0.03795531525070217</v>
       </c>
       <c r="F23">
-        <v>1.433017498439753</v>
+        <v>0.7635199757729794</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0.8055243765186511</v>
+        <v>0.2300593731661209</v>
       </c>
       <c r="J23">
-        <v>0.1247151477217905</v>
+        <v>0.03205235215896129</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4168960641976156</v>
+        <v>0.5609612002281921</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.58365886258872</v>
+        <v>1.825046167889468</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.100296550960934</v>
+        <v>4.949389447955809</v>
       </c>
       <c r="C24">
-        <v>0.2530098948702175</v>
+        <v>0.7237922696047576</v>
       </c>
       <c r="D24">
-        <v>0.1369647192487093</v>
+        <v>0.09010389265193197</v>
       </c>
       <c r="E24">
-        <v>0.1114869366499089</v>
+        <v>0.03809606197619608</v>
       </c>
       <c r="F24">
-        <v>1.44340656652723</v>
+        <v>0.7156831929369005</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0.8241568797472638</v>
+        <v>0.2445928817846053</v>
       </c>
       <c r="J24">
-        <v>0.1268936132127096</v>
+        <v>0.03552895524599098</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3973300539720412</v>
+        <v>0.4861262226502845</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.620996315496939</v>
+        <v>1.722310292642845</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.826715976498406</v>
+        <v>4.057068725224042</v>
       </c>
       <c r="C25">
-        <v>0.2144318424828384</v>
+        <v>0.6049816597916902</v>
       </c>
       <c r="D25">
-        <v>0.1346571176349443</v>
+        <v>0.07923042565769833</v>
       </c>
       <c r="E25">
-        <v>0.1127102435519678</v>
+        <v>0.03847909288935902</v>
       </c>
       <c r="F25">
-        <v>1.458106206644224</v>
+        <v>0.6730665924843109</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0.8464338436636609</v>
+        <v>0.2656898132442755</v>
       </c>
       <c r="J25">
-        <v>0.1294344242990055</v>
+        <v>0.03960632794505603</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3766005252823987</v>
+        <v>0.4066771488991918</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.670893321681689</v>
+        <v>1.637580957850901</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_9/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.40360191939692</v>
+        <v>2.522082417946535</v>
       </c>
       <c r="C2">
-        <v>0.5177681023997422</v>
+        <v>0.3965711774327758</v>
       </c>
       <c r="D2">
-        <v>0.07139381915397536</v>
+        <v>0.06835435046419747</v>
       </c>
       <c r="E2">
-        <v>0.03894618050198417</v>
+        <v>0.05224238689394411</v>
       </c>
       <c r="F2">
-        <v>0.6483894673219055</v>
+        <v>0.8339504163343463</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
+        <v>0.001624776320968913</v>
+      </c>
+      <c r="I2">
+        <v>0.001551391408603831</v>
+      </c>
+      <c r="J2">
         <v>0.02672462365074526</v>
       </c>
-      <c r="I2">
-        <v>0.2853435002556886</v>
-      </c>
-      <c r="J2">
-        <v>0.04287305676248865</v>
-      </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.4099489624045383</v>
       </c>
       <c r="L2">
-        <v>0.349027947490157</v>
+        <v>0.06495750464175121</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.3149152635432415</v>
       </c>
       <c r="O2">
-        <v>1.594587422431999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.8984899777995139</v>
+      </c>
+      <c r="Q2">
+        <v>2.130469223304345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.962018294610232</v>
+        <v>2.201590269357155</v>
       </c>
       <c r="C3">
-        <v>0.4587133363420719</v>
+        <v>0.3517951529134393</v>
       </c>
       <c r="D3">
-        <v>0.06617433735138434</v>
+        <v>0.0633238713340063</v>
       </c>
       <c r="E3">
-        <v>0.03937182491495328</v>
+        <v>0.0499888188376918</v>
       </c>
       <c r="F3">
-        <v>0.635379942331042</v>
+        <v>0.7930773966127234</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0.002906360977350531</v>
+      </c>
+      <c r="I3">
+        <v>0.002566199375906741</v>
+      </c>
+      <c r="J3">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I3">
-        <v>0.3009863807398574</v>
-      </c>
-      <c r="J3">
-        <v>0.04524422685732787</v>
-      </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4057287133755203</v>
       </c>
       <c r="L3">
-        <v>0.3103777519827986</v>
+        <v>0.06262766861696267</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2802016883110809</v>
       </c>
       <c r="O3">
-        <v>1.576164616426468</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.9073480769280948</v>
+      </c>
+      <c r="Q3">
+        <v>2.032657654931029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.691238044698366</v>
+        <v>2.004141772380251</v>
       </c>
       <c r="C4">
-        <v>0.4224446136222753</v>
+        <v>0.3244106132386548</v>
       </c>
       <c r="D4">
-        <v>0.06301040980928008</v>
+        <v>0.06025530234174425</v>
       </c>
       <c r="E4">
-        <v>0.03968502206402214</v>
+        <v>0.04858923683849525</v>
       </c>
       <c r="F4">
-        <v>0.6290816975453026</v>
+        <v>0.7685412513625423</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0.003915353267871458</v>
+      </c>
+      <c r="I4">
+        <v>0.003416706493427846</v>
+      </c>
+      <c r="J4">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I4">
-        <v>0.3116614080406741</v>
-      </c>
-      <c r="J4">
-        <v>0.04677530160667587</v>
-      </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4034148429959181</v>
       </c>
       <c r="L4">
-        <v>0.2868201813743099</v>
+        <v>0.0611588082932828</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2589551836682915</v>
       </c>
       <c r="O4">
-        <v>1.569715148422802</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.9134962513268121</v>
+      </c>
+      <c r="Q4">
+        <v>1.974235755199373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.580945625378945</v>
+        <v>1.922390134179437</v>
       </c>
       <c r="C5">
-        <v>0.4076581776380408</v>
+        <v>0.313701078127707</v>
       </c>
       <c r="D5">
-        <v>0.06173078896318174</v>
+        <v>0.05903034249666206</v>
       </c>
       <c r="E5">
-        <v>0.03982541319038191</v>
+        <v>0.0479995010611054</v>
       </c>
       <c r="F5">
-        <v>0.626920024016357</v>
+        <v>0.7581446564964907</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0.004382779242342649</v>
+      </c>
+      <c r="I5">
+        <v>0.003894060838814273</v>
+      </c>
+      <c r="J5">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I5">
-        <v>0.3162699633140633</v>
-      </c>
-      <c r="J5">
-        <v>0.04741778030440957</v>
-      </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4021822573853022</v>
       </c>
       <c r="L5">
-        <v>0.2772595639171982</v>
+        <v>0.06052752117541349</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2504664545307236</v>
       </c>
       <c r="O5">
-        <v>1.568250286746789</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.9164695189261209</v>
+      </c>
+      <c r="Q5">
+        <v>1.949214338280001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.562633825634919</v>
+        <v>1.907437157304088</v>
       </c>
       <c r="C6">
-        <v>0.4052023775753923</v>
+        <v>0.3124477295739894</v>
       </c>
       <c r="D6">
-        <v>0.06151887912867693</v>
+        <v>0.05885269544256744</v>
       </c>
       <c r="E6">
-        <v>0.03984948786776421</v>
+        <v>0.04788282061021754</v>
       </c>
       <c r="F6">
-        <v>0.6265849704019715</v>
+        <v>0.7557760821706339</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0.004466981389472491</v>
+      </c>
+      <c r="I6">
+        <v>0.004076850145494859</v>
+      </c>
+      <c r="J6">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I6">
-        <v>0.3170505130332835</v>
-      </c>
-      <c r="J6">
-        <v>0.04752557409557001</v>
-      </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4015457898473613</v>
       </c>
       <c r="L6">
-        <v>0.2756742791729181</v>
+        <v>0.06039443370658137</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2492471628697501</v>
       </c>
       <c r="O6">
-        <v>1.56807563341259</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.9173358339430919</v>
+      </c>
+      <c r="Q6">
+        <v>1.943121659221674</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.689750435184123</v>
+        <v>1.999291761644201</v>
       </c>
       <c r="C7">
-        <v>0.4222452310463041</v>
+        <v>0.3257002915338205</v>
       </c>
       <c r="D7">
-        <v>0.0629931138242199</v>
+        <v>0.06030847127753702</v>
       </c>
       <c r="E7">
-        <v>0.03968686411746525</v>
+        <v>0.04853094092778143</v>
       </c>
       <c r="F7">
-        <v>0.6290509306488943</v>
+        <v>0.7666244895917984</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0.003929981288053941</v>
+      </c>
+      <c r="I7">
+        <v>0.003680510887528854</v>
+      </c>
+      <c r="J7">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I7">
-        <v>0.3117225281896481</v>
-      </c>
-      <c r="J7">
-        <v>0.04678389162548768</v>
-      </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4022083735503301</v>
       </c>
       <c r="L7">
-        <v>0.2866910901346529</v>
+        <v>0.06107513766016837</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2593590251558311</v>
       </c>
       <c r="O7">
-        <v>1.569690758622627</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.9145398480059086</v>
+      </c>
+      <c r="Q7">
+        <v>1.968539490220479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.251247714855083</v>
+        <v>2.40669809356308</v>
       </c>
       <c r="C8">
-        <v>0.4974050864380501</v>
+        <v>0.383024217204337</v>
       </c>
       <c r="D8">
-        <v>0.06958530789342632</v>
+        <v>0.06670823611450771</v>
       </c>
       <c r="E8">
-        <v>0.03908201057338001</v>
+        <v>0.05140241922748423</v>
       </c>
       <c r="F8">
-        <v>0.6435407620992919</v>
+        <v>0.8173855386945945</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0.002026784473929122</v>
+      </c>
+      <c r="I8">
+        <v>0.002159676525176124</v>
+      </c>
+      <c r="J8">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I8">
-        <v>0.2905084232891113</v>
-      </c>
-      <c r="J8">
-        <v>0.04367482146695756</v>
-      </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4068651837948387</v>
       </c>
       <c r="L8">
-        <v>0.335662530836828</v>
+        <v>0.06406380874380169</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.3036214556263985</v>
       </c>
       <c r="O8">
-        <v>1.587189456850922</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.902788514184742</v>
+      </c>
+      <c r="Q8">
+        <v>2.089298378971506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.356965418975676</v>
+        <v>3.207448722325296</v>
       </c>
       <c r="C9">
-        <v>0.6449454787880313</v>
+        <v>0.4939097301277684</v>
       </c>
       <c r="D9">
-        <v>0.08286483349768048</v>
+        <v>0.07931021540822769</v>
       </c>
       <c r="E9">
-        <v>0.03832043671529561</v>
+        <v>0.05700981498353386</v>
       </c>
       <c r="F9">
-        <v>0.6863158210315845</v>
+        <v>0.9249007571889081</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
+        <v>0.0001605294472739605</v>
+      </c>
+      <c r="I9">
+        <v>0.000711864549691299</v>
+      </c>
+      <c r="J9">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I9">
-        <v>0.2579087244344187</v>
-      </c>
-      <c r="J9">
-        <v>0.03819067564117762</v>
-      </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.4204525041190585</v>
       </c>
       <c r="L9">
-        <v>0.4332922990542585</v>
+        <v>0.06977236366730999</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.3901320225735674</v>
       </c>
       <c r="O9">
-        <v>1.662915953198024</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.8837003888559778</v>
+      </c>
+      <c r="Q9">
+        <v>2.349718152116509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.174953649518727</v>
+        <v>3.775335599899506</v>
       </c>
       <c r="C10">
-        <v>0.7537813875341897</v>
+        <v>0.5786144383150997</v>
       </c>
       <c r="D10">
-        <v>0.09287885950368491</v>
+        <v>0.08734171626748122</v>
       </c>
       <c r="E10">
-        <v>0.03803897988728089</v>
+        <v>0.05961570630959123</v>
       </c>
       <c r="F10">
-        <v>0.7279090589781276</v>
+        <v>0.9952102578377264</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0.000260160299489165</v>
+      </c>
+      <c r="I10">
+        <v>0.001099443929842181</v>
+      </c>
+      <c r="J10">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I10">
-        <v>0.2401945087872974</v>
-      </c>
-      <c r="J10">
-        <v>0.03455872174298302</v>
-      </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.4267952877509487</v>
       </c>
       <c r="L10">
-        <v>0.5063257663228882</v>
+        <v>0.0727239571898961</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.4426476430869855</v>
       </c>
       <c r="O10">
-        <v>1.747989816656627</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.879207595678011</v>
+      </c>
+      <c r="Q10">
+        <v>2.521596340978789</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.548980283642607</v>
+        <v>3.886334269656231</v>
       </c>
       <c r="C11">
-        <v>0.8034734635811844</v>
+        <v>0.6336766341524935</v>
       </c>
       <c r="D11">
-        <v>0.0975007814486446</v>
+        <v>0.07933696257859424</v>
       </c>
       <c r="E11">
-        <v>0.03797586574483525</v>
+        <v>0.05036940699625347</v>
       </c>
       <c r="F11">
-        <v>0.7493759647481255</v>
+        <v>0.9288643220459676</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0.01884204668963463</v>
+      </c>
+      <c r="I11">
+        <v>0.001816320476306643</v>
+      </c>
+      <c r="J11">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I11">
-        <v>0.2336689721702463</v>
-      </c>
-      <c r="J11">
-        <v>0.03299832863403895</v>
-      </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.388779884835639</v>
       </c>
       <c r="L11">
-        <v>0.5399141018872484</v>
+        <v>0.06965257751352683</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.3691634499066794</v>
       </c>
       <c r="O11">
-        <v>1.794087735635202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.9282748015040454</v>
+      </c>
+      <c r="Q11">
+        <v>2.362902817002151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.690950904014244</v>
+        <v>3.863719427682668</v>
       </c>
       <c r="C12">
-        <v>0.8223242512388254</v>
+        <v>0.6604311312348159</v>
       </c>
       <c r="D12">
-        <v>0.09926145973660283</v>
+        <v>0.07120115387070314</v>
       </c>
       <c r="E12">
-        <v>0.03796170774660723</v>
+        <v>0.04496396210714071</v>
       </c>
       <c r="F12">
-        <v>0.7579014407850906</v>
+        <v>0.8617859463590918</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0.05748396470826833</v>
+      </c>
+      <c r="I12">
+        <v>0.001844686629941528</v>
+      </c>
+      <c r="J12">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I12">
-        <v>0.2314345267664386</v>
-      </c>
-      <c r="J12">
-        <v>0.03242116103447024</v>
-      </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.3583080272686381</v>
       </c>
       <c r="L12">
-        <v>0.5526927380207098</v>
+        <v>0.07310591754858287</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.3015721995135863</v>
       </c>
       <c r="O12">
-        <v>1.812698208987683</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.9738980850164864</v>
+      </c>
+      <c r="Q12">
+        <v>2.202679514324643</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.660359108955447</v>
+        <v>3.731166913150332</v>
       </c>
       <c r="C13">
-        <v>0.8182627849587618</v>
+        <v>0.6689536963563114</v>
       </c>
       <c r="D13">
-        <v>0.09888178607934606</v>
+        <v>0.062643542727713</v>
       </c>
       <c r="E13">
-        <v>0.03796431689003299</v>
+        <v>0.04208834721039395</v>
       </c>
       <c r="F13">
-        <v>0.7560471884074502</v>
+        <v>0.7875375381920762</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0.1131639248104364</v>
+      </c>
+      <c r="I13">
+        <v>0.001680920217505211</v>
+      </c>
+      <c r="J13">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I13">
-        <v>0.2319049588135584</v>
-      </c>
-      <c r="J13">
-        <v>0.03254484558578752</v>
-      </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.3299741997139733</v>
       </c>
       <c r="L13">
-        <v>0.549937868501317</v>
+        <v>0.08147395482838959</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.2358250930625019</v>
       </c>
       <c r="O13">
-        <v>1.808637262710391</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1.020107408270562</v>
+      </c>
+      <c r="Q13">
+        <v>2.023520731524599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.560653226721968</v>
+        <v>3.588003793250437</v>
       </c>
       <c r="C14">
-        <v>0.8050236142484835</v>
+        <v>0.6671222188703041</v>
       </c>
       <c r="D14">
-        <v>0.09764541856048226</v>
+        <v>0.05659286465054691</v>
       </c>
       <c r="E14">
-        <v>0.03797450329108365</v>
+        <v>0.04159181871408757</v>
       </c>
       <c r="F14">
-        <v>0.750069233976788</v>
+        <v>0.7325093993245844</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
+        <v>0.1624622976812589</v>
+      </c>
+      <c r="I14">
+        <v>0.001584724233321566</v>
+      </c>
+      <c r="J14">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I14">
-        <v>0.2334803032380748</v>
-      </c>
-      <c r="J14">
-        <v>0.03295056665204754</v>
-      </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.3111478789308428</v>
       </c>
       <c r="L14">
-        <v>0.5409641743409992</v>
+        <v>0.09032317051757133</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1920410241966337</v>
       </c>
       <c r="O14">
-        <v>1.79559515587124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1.053326692825536</v>
+      </c>
+      <c r="Q14">
+        <v>1.889612316856187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.49962593150974</v>
+        <v>3.528764623476661</v>
       </c>
       <c r="C15">
-        <v>0.7969188269203471</v>
+        <v>0.6633332362096382</v>
       </c>
       <c r="D15">
-        <v>0.09688949731513219</v>
+        <v>0.05500703615425806</v>
       </c>
       <c r="E15">
-        <v>0.03798202396363948</v>
+        <v>0.04163078630320793</v>
       </c>
       <c r="F15">
-        <v>0.7464601295110782</v>
+        <v>0.7169824597278875</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0.1749545227926461</v>
+      </c>
+      <c r="I15">
+        <v>0.001646266360069149</v>
+      </c>
+      <c r="J15">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I15">
-        <v>0.2344765661271602</v>
-      </c>
-      <c r="J15">
-        <v>0.03320088519657904</v>
-      </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.3065623078188118</v>
       </c>
       <c r="L15">
-        <v>0.5354754876906895</v>
+        <v>0.09267126568565587</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1811793229411691</v>
       </c>
       <c r="O15">
-        <v>1.787759601524357</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1.061376074779332</v>
+      </c>
+      <c r="Q15">
+        <v>1.851234175512246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.150553674388561</v>
+        <v>3.312145296720757</v>
       </c>
       <c r="C16">
-        <v>0.7505381666152289</v>
+        <v>0.6254299915499359</v>
       </c>
       <c r="D16">
-        <v>0.09257821895823781</v>
+        <v>0.05353181155067688</v>
       </c>
       <c r="E16">
-        <v>0.03804444506359239</v>
+        <v>0.0411087251080251</v>
       </c>
       <c r="F16">
-        <v>0.7265599175644084</v>
+        <v>0.7016721271973267</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0.1621719181552095</v>
+      </c>
+      <c r="I16">
+        <v>0.001587407486547399</v>
+      </c>
+      <c r="J16">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I16">
-        <v>0.2406531706802859</v>
-      </c>
-      <c r="J16">
-        <v>0.03466258789040744</v>
-      </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.309015706041599</v>
       </c>
       <c r="L16">
-        <v>0.5041386184480956</v>
+        <v>0.08935554603826645</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1740808215024359</v>
       </c>
       <c r="O16">
-        <v>1.745133640778192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1.051238503546344</v>
+      </c>
+      <c r="Q16">
+        <v>1.812051099389521</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.936941149706172</v>
+        <v>3.221771649335437</v>
       </c>
       <c r="C17">
-        <v>0.7221367619697219</v>
+        <v>0.5975080676021776</v>
       </c>
       <c r="D17">
-        <v>0.08995103458171627</v>
+        <v>0.0555445657225988</v>
       </c>
       <c r="E17">
-        <v>0.03809964721775749</v>
+        <v>0.04071142580454223</v>
       </c>
       <c r="F17">
-        <v>0.7150247277856394</v>
+        <v>0.718878328435899</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0.1244062195170983</v>
+      </c>
+      <c r="I17">
+        <v>0.001633804900904146</v>
+      </c>
+      <c r="J17">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I17">
-        <v>0.2448460644136006</v>
-      </c>
-      <c r="J17">
-        <v>0.03558316544769635</v>
-      </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.3207475749000288</v>
       </c>
       <c r="L17">
-        <v>0.4850127475485948</v>
+        <v>0.08159591262381127</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1910233121481113</v>
       </c>
       <c r="O17">
-        <v>1.720940877344106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1.026135751751767</v>
+      </c>
+      <c r="Q17">
+        <v>1.852608100031091</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.814253762368139</v>
+        <v>3.232011020633536</v>
       </c>
       <c r="C18">
-        <v>0.7058176898140118</v>
+        <v>0.5737760283622038</v>
       </c>
       <c r="D18">
-        <v>0.08844614843201271</v>
+        <v>0.06099361159749606</v>
       </c>
       <c r="E18">
-        <v>0.03813748295187835</v>
+        <v>0.0417942950408603</v>
       </c>
       <c r="F18">
-        <v>0.7086276823595767</v>
+        <v>0.7680518000731169</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
+        <v>0.07159012512942553</v>
+      </c>
+      <c r="I18">
+        <v>0.001418125390484803</v>
+      </c>
+      <c r="J18">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I18">
-        <v>0.2474009358418598</v>
-      </c>
-      <c r="J18">
-        <v>0.03612126497142265</v>
-      </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.3432284976921487</v>
       </c>
       <c r="L18">
-        <v>0.4740459630885141</v>
+        <v>0.07220422811854554</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.2337105360819152</v>
       </c>
       <c r="O18">
-        <v>1.707716311186942</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.9860566464278406</v>
+      </c>
+      <c r="Q18">
+        <v>1.971655753256528</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.772742588555843</v>
+        <v>3.314982506062108</v>
       </c>
       <c r="C19">
-        <v>0.7002949824326095</v>
+        <v>0.558340716925386</v>
       </c>
       <c r="D19">
-        <v>0.08793765868524872</v>
+        <v>0.06934379917300504</v>
       </c>
       <c r="E19">
-        <v>0.03815132662301934</v>
+        <v>0.04605346837292856</v>
       </c>
       <c r="F19">
-        <v>0.706501688869416</v>
+        <v>0.8382352120289553</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0.02631539652762171</v>
+      </c>
+      <c r="I19">
+        <v>0.001530981153349487</v>
+      </c>
+      <c r="J19">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I19">
-        <v>0.2482900961588825</v>
-      </c>
-      <c r="J19">
-        <v>0.03630491937248737</v>
-      </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.3721356798805502</v>
       </c>
       <c r="L19">
-        <v>0.470338419058919</v>
+        <v>0.06684178505045857</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.3002338768242936</v>
       </c>
       <c r="O19">
-        <v>1.70335464361716</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.9426894810227679</v>
+      </c>
+      <c r="Q19">
+        <v>2.140086794075046</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.959661849983263</v>
+        <v>3.613680656080987</v>
       </c>
       <c r="C20">
-        <v>0.7251583644086281</v>
+        <v>0.5609930355982158</v>
       </c>
       <c r="D20">
-        <v>0.0902300548189956</v>
+        <v>0.08538620199060887</v>
       </c>
       <c r="E20">
-        <v>0.03809313823060201</v>
+        <v>0.05872169649539849</v>
       </c>
       <c r="F20">
-        <v>0.71622785589134</v>
+        <v>0.9705139667906337</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
+        <v>0.0001260943571641526</v>
+      </c>
+      <c r="I20">
+        <v>0.001670999417388686</v>
+      </c>
+      <c r="J20">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I20">
-        <v>0.2443847862350843</v>
-      </c>
-      <c r="J20">
-        <v>0.03548427389187037</v>
-      </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.4211733630693146</v>
       </c>
       <c r="L20">
-        <v>0.4870451708061125</v>
+        <v>0.07169343575939191</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.4299725387558624</v>
       </c>
       <c r="O20">
-        <v>1.723444143627376</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.8839457521399012</v>
+      </c>
+      <c r="Q20">
+        <v>2.457959505433109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.589929680340106</v>
+        <v>4.075963635366236</v>
       </c>
       <c r="C21">
-        <v>0.8089113097562119</v>
+        <v>0.6230483206239796</v>
       </c>
       <c r="D21">
-        <v>0.09800827838896708</v>
+        <v>0.09371345854592761</v>
       </c>
       <c r="E21">
-        <v>0.03797124353226877</v>
+        <v>0.0629724260182023</v>
       </c>
       <c r="F21">
-        <v>0.7518140921721113</v>
+        <v>1.044255065302238</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
+        <v>0.00041961770879273</v>
+      </c>
+      <c r="I21">
+        <v>0.002286442958372881</v>
+      </c>
+      <c r="J21">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I21">
-        <v>0.2330110288702549</v>
-      </c>
-      <c r="J21">
-        <v>0.03283101988740711</v>
-      </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.434628508832219</v>
       </c>
       <c r="L21">
-        <v>0.5435982937217574</v>
+        <v>0.07561102474137193</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.4884963388923467</v>
       </c>
       <c r="O21">
-        <v>1.799393858942693</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.8733949235057068</v>
+      </c>
+      <c r="Q21">
+        <v>2.638625027974996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.003828810047935</v>
+        <v>4.374759966068495</v>
       </c>
       <c r="C22">
-        <v>0.8638476816854848</v>
+        <v>0.6627378956955852</v>
       </c>
       <c r="D22">
-        <v>0.1031532146481808</v>
+        <v>0.0983850009947318</v>
       </c>
       <c r="E22">
-        <v>0.03794857026349518</v>
+        <v>0.06507856908293697</v>
       </c>
       <c r="F22">
-        <v>0.7773981851316307</v>
+        <v>1.089842112935244</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
+        <v>0.0009783267296654685</v>
+      </c>
+      <c r="I22">
+        <v>0.002680773904756073</v>
+      </c>
+      <c r="J22">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I22">
-        <v>0.2269653280346446</v>
-      </c>
-      <c r="J22">
-        <v>0.03117719940237018</v>
-      </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.4429278828187293</v>
       </c>
       <c r="L22">
-        <v>0.5809092664880922</v>
+        <v>0.0777083346943872</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.5201655906609091</v>
       </c>
       <c r="O22">
-        <v>1.855805997500767</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.8683299616561939</v>
+      </c>
+      <c r="Q22">
+        <v>2.752342548354164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.78272090776386</v>
+        <v>4.21990544202805</v>
       </c>
       <c r="C23">
-        <v>0.8345063206946293</v>
+        <v>0.6397670906692383</v>
       </c>
       <c r="D23">
-        <v>0.1004013310006755</v>
+        <v>0.09580425480436361</v>
       </c>
       <c r="E23">
-        <v>0.03795531525070217</v>
+        <v>0.06401228507481527</v>
       </c>
       <c r="F23">
-        <v>0.7635199757729794</v>
+        <v>1.067531122875749</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
+        <v>0.0006554597150938424</v>
+      </c>
+      <c r="I23">
+        <v>0.002151949119896912</v>
+      </c>
+      <c r="J23">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I23">
-        <v>0.2300593731661209</v>
-      </c>
-      <c r="J23">
-        <v>0.03205235215896129</v>
-      </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.4398456494463829</v>
       </c>
       <c r="L23">
-        <v>0.5609612002281921</v>
+        <v>0.07667433841976568</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.5026190467848579</v>
       </c>
       <c r="O23">
-        <v>1.825046167889468</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.8695468822914521</v>
+      </c>
+      <c r="Q23">
+        <v>2.697743528374644</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.949389447955809</v>
+        <v>3.625762307768355</v>
       </c>
       <c r="C24">
-        <v>0.7237922696047576</v>
+        <v>0.5560704381951496</v>
       </c>
       <c r="D24">
-        <v>0.09010389265193197</v>
+        <v>0.08622827863328553</v>
       </c>
       <c r="E24">
-        <v>0.03809606197619608</v>
+        <v>0.05988084346168598</v>
       </c>
       <c r="F24">
-        <v>0.7156831929369005</v>
+        <v>0.9814105637295825</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
+        <v>1.25530040873123E-05</v>
+      </c>
+      <c r="I24">
+        <v>0.001191493891486317</v>
+      </c>
+      <c r="J24">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I24">
-        <v>0.2445928817846053</v>
-      </c>
-      <c r="J24">
-        <v>0.03552895524599098</v>
-      </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.4267695278122758</v>
       </c>
       <c r="L24">
-        <v>0.4861262226502845</v>
+        <v>0.07259606068370505</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.4374549367312994</v>
       </c>
       <c r="O24">
-        <v>1.722310292642845</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.8780337011879382</v>
+      </c>
+      <c r="Q24">
+        <v>2.485965502130455</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.057068725224042</v>
+        <v>2.984370155077556</v>
       </c>
       <c r="C25">
-        <v>0.6049816597916902</v>
+        <v>0.4664207165860432</v>
       </c>
       <c r="D25">
-        <v>0.07923042565769833</v>
+        <v>0.07600721303741409</v>
       </c>
       <c r="E25">
-        <v>0.03847909288935902</v>
+        <v>0.05541355751240751</v>
       </c>
       <c r="F25">
-        <v>0.6730665924843109</v>
+        <v>0.8920376854495373</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
+        <v>0.000452762001033058</v>
+      </c>
+      <c r="I25">
+        <v>0.001309723237543636</v>
+      </c>
+      <c r="J25">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I25">
-        <v>0.2656898132442755</v>
-      </c>
-      <c r="J25">
-        <v>0.03960632794505603</v>
-      </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.4143747372087851</v>
       </c>
       <c r="L25">
-        <v>0.4066771488991918</v>
+        <v>0.06812409968317024</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.3675956828752334</v>
       </c>
       <c r="O25">
-        <v>1.637580957850901</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.890219248938223</v>
+      </c>
+      <c r="Q25">
+        <v>2.267923093800789</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_9/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.522082417946535</v>
+        <v>2.438301143075648</v>
       </c>
       <c r="C2">
-        <v>0.3965711774327758</v>
+        <v>0.4207867486651367</v>
       </c>
       <c r="D2">
-        <v>0.06835435046419747</v>
+        <v>0.07118040459855024</v>
       </c>
       <c r="E2">
-        <v>0.05224238689394411</v>
+        <v>0.05137317540724418</v>
       </c>
       <c r="F2">
-        <v>0.8339504163343463</v>
+        <v>0.7817339024667334</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.001624776320968913</v>
+        <v>0.00117657144148231</v>
       </c>
       <c r="I2">
-        <v>0.001551391408603831</v>
+        <v>0.001100243195937267</v>
       </c>
       <c r="J2">
-        <v>0.02672462365074526</v>
+        <v>0.07607150459155762</v>
       </c>
       <c r="K2">
-        <v>0.4099489624045383</v>
+        <v>0.3684474427483444</v>
       </c>
       <c r="L2">
-        <v>0.06495750464175121</v>
+        <v>0.1807551496114606</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1023725117462426</v>
       </c>
       <c r="N2">
-        <v>0.3149152635432415</v>
+        <v>0.06265248100879894</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8984899777995139</v>
+        <v>0.3316911573487289</v>
       </c>
       <c r="Q2">
-        <v>2.130469223304345</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.9032395590850939</v>
+      </c>
+      <c r="S2">
+        <v>1.970668557558696</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.201590269357155</v>
+        <v>2.133189724084616</v>
       </c>
       <c r="C3">
-        <v>0.3517951529134393</v>
+        <v>0.3689407600394361</v>
       </c>
       <c r="D3">
-        <v>0.0633238713340063</v>
+        <v>0.06593151562648103</v>
       </c>
       <c r="E3">
-        <v>0.0499888188376918</v>
+        <v>0.04933092794243343</v>
       </c>
       <c r="F3">
-        <v>0.7930773966127234</v>
+        <v>0.7465974564985345</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.002906360977350531</v>
+        <v>0.002221380035984488</v>
       </c>
       <c r="I3">
-        <v>0.002566199375906741</v>
+        <v>0.001771142099419976</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142331</v>
       </c>
       <c r="K3">
-        <v>0.4057287133755203</v>
+        <v>0.3672410057302606</v>
       </c>
       <c r="L3">
-        <v>0.06262766861696267</v>
+        <v>0.1846232384776698</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.09888299745241902</v>
       </c>
       <c r="N3">
-        <v>0.2802016883110809</v>
+        <v>0.06054816092678017</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9073480769280948</v>
+        <v>0.2950190728202671</v>
       </c>
       <c r="Q3">
-        <v>2.032657654931029</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.9044791671567083</v>
+      </c>
+      <c r="S3">
+        <v>1.889674853030073</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.004141772380251</v>
+        <v>1.944867193555581</v>
       </c>
       <c r="C4">
-        <v>0.3244106132386548</v>
+        <v>0.3373319152799468</v>
       </c>
       <c r="D4">
-        <v>0.06025530234174425</v>
+        <v>0.06273455142187601</v>
       </c>
       <c r="E4">
-        <v>0.04858923683849525</v>
+        <v>0.04805964650628614</v>
       </c>
       <c r="F4">
-        <v>0.7685412513625423</v>
+        <v>0.7254475983516002</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.003915353267871458</v>
+        <v>0.00305872195980228</v>
       </c>
       <c r="I4">
-        <v>0.003416706493427846</v>
+        <v>0.002376784049302749</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153714</v>
       </c>
       <c r="K4">
-        <v>0.4034148429959181</v>
+        <v>0.3666886763284261</v>
       </c>
       <c r="L4">
-        <v>0.0611588082932828</v>
+        <v>0.1870342467942621</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.09735744821917791</v>
       </c>
       <c r="N4">
-        <v>0.2589551836682915</v>
+        <v>0.05921793565572564</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9134962513268121</v>
+        <v>0.2726068092650848</v>
       </c>
       <c r="Q4">
-        <v>1.974235755199373</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.9060457649141682</v>
+      </c>
+      <c r="S4">
+        <v>1.841156304948584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.922390134179437</v>
+        <v>1.866772157867189</v>
       </c>
       <c r="C5">
-        <v>0.313701078127707</v>
+        <v>0.3249516900346805</v>
       </c>
       <c r="D5">
-        <v>0.05903034249666206</v>
+        <v>0.06145909691939977</v>
       </c>
       <c r="E5">
-        <v>0.0479995010611054</v>
+        <v>0.04752221010332658</v>
       </c>
       <c r="F5">
-        <v>0.7581446564964907</v>
+        <v>0.7164134954976618</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.004382779242342649</v>
+        <v>0.003449525778990159</v>
       </c>
       <c r="I5">
-        <v>0.003894060838814273</v>
+        <v>0.002758091016493935</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153728</v>
       </c>
       <c r="K5">
-        <v>0.4021822573853022</v>
+        <v>0.366175053372217</v>
       </c>
       <c r="L5">
-        <v>0.06052752117541349</v>
+        <v>0.1878609885144975</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.09680235330515785</v>
       </c>
       <c r="N5">
-        <v>0.2504664545307236</v>
+        <v>0.05864530805020163</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9164695189261209</v>
+        <v>0.2636552855867365</v>
       </c>
       <c r="Q5">
-        <v>1.949214338280001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.9072111766989508</v>
+      </c>
+      <c r="S5">
+        <v>1.820123953391487</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.907437157304088</v>
+        <v>1.852440258366926</v>
       </c>
       <c r="C6">
-        <v>0.3124477295739894</v>
+        <v>0.323449586083342</v>
       </c>
       <c r="D6">
-        <v>0.05885269544256744</v>
+        <v>0.06127361010694443</v>
       </c>
       <c r="E6">
-        <v>0.04788282061021754</v>
+        <v>0.04741461946731107</v>
       </c>
       <c r="F6">
-        <v>0.7557760821706339</v>
+        <v>0.7142885662880687</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.004466981389472491</v>
+        <v>0.003520193465212373</v>
       </c>
       <c r="I6">
-        <v>0.004076850145494859</v>
+        <v>0.002940421505930324</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142324</v>
       </c>
       <c r="K6">
-        <v>0.4015457898473613</v>
+        <v>0.3656848833061908</v>
       </c>
       <c r="L6">
-        <v>0.06039443370658137</v>
+        <v>0.1877982441477748</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.09661242899098177</v>
       </c>
       <c r="N6">
-        <v>0.2492471628697501</v>
+        <v>0.05852454394291762</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9173358339430919</v>
+        <v>0.2623633441551902</v>
       </c>
       <c r="Q6">
-        <v>1.943121659221674</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.9078217510486297</v>
+      </c>
+      <c r="S6">
+        <v>1.814757202000465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.999291761644201</v>
+        <v>1.940120132658478</v>
       </c>
       <c r="C7">
-        <v>0.3257002915338205</v>
+        <v>0.3386752797473491</v>
       </c>
       <c r="D7">
-        <v>0.06030847127753702</v>
+        <v>0.06278832218023211</v>
       </c>
       <c r="E7">
-        <v>0.04853094092778143</v>
+        <v>0.04800328150157096</v>
       </c>
       <c r="F7">
-        <v>0.7666244895917984</v>
+        <v>0.7236046784502932</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.003929981288053941</v>
+        <v>0.003071207219815353</v>
       </c>
       <c r="I7">
-        <v>0.003680510887528854</v>
+        <v>0.002680524498946291</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.0759357156874878</v>
       </c>
       <c r="K7">
-        <v>0.4022083735503301</v>
+        <v>0.3655723385560954</v>
       </c>
       <c r="L7">
-        <v>0.06107513766016837</v>
+        <v>0.1865128540867573</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.09704468544747158</v>
       </c>
       <c r="N7">
-        <v>0.2593590251558311</v>
+        <v>0.05914241876181148</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9145398480059086</v>
+        <v>0.2730146457441975</v>
       </c>
       <c r="Q7">
-        <v>1.968539490220479</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.9071870011587677</v>
+      </c>
+      <c r="S7">
+        <v>1.835713075962957</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.40669809356308</v>
+        <v>2.328370311032302</v>
       </c>
       <c r="C8">
-        <v>0.383024217204337</v>
+        <v>0.4048898519044144</v>
       </c>
       <c r="D8">
-        <v>0.06670823611450771</v>
+        <v>0.06945969217098735</v>
       </c>
       <c r="E8">
-        <v>0.05140241922748423</v>
+        <v>0.05060829107086562</v>
       </c>
       <c r="F8">
-        <v>0.8173855386945945</v>
+        <v>0.7672590635219194</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.002026784473929122</v>
+        <v>0.001501353754129187</v>
       </c>
       <c r="I8">
-        <v>0.002159676525176124</v>
+        <v>0.001649134130056851</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284014</v>
       </c>
       <c r="K8">
-        <v>0.4068651837948387</v>
+        <v>0.3665415375629095</v>
       </c>
       <c r="L8">
-        <v>0.06406380874380169</v>
+        <v>0.1814401965563128</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1005871507435359</v>
       </c>
       <c r="N8">
-        <v>0.3036214556263985</v>
+        <v>0.06184760338800022</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.902788514184742</v>
+        <v>0.3197294965366524</v>
       </c>
       <c r="Q8">
-        <v>2.089298378971506</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.9050720760371505</v>
+      </c>
+      <c r="S8">
+        <v>1.935684505963394</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.207448722325296</v>
+        <v>3.088791257413448</v>
       </c>
       <c r="C9">
-        <v>0.4939097301277684</v>
+        <v>0.534004134881684</v>
       </c>
       <c r="D9">
-        <v>0.07931021540822769</v>
+        <v>0.08263599621989215</v>
       </c>
       <c r="E9">
-        <v>0.05700981498353386</v>
+        <v>0.05567720823713884</v>
       </c>
       <c r="F9">
-        <v>0.9249007571889081</v>
+        <v>0.8595943101130246</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0001605294472739605</v>
+        <v>6.810005202395608E-05</v>
       </c>
       <c r="I9">
-        <v>0.000711864549691299</v>
+        <v>0.0008068893900281537</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>0.4204525041190585</v>
+        <v>0.3719977857734378</v>
       </c>
       <c r="L9">
-        <v>0.06977236366730999</v>
+        <v>0.1726308855799807</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1131305309864459</v>
       </c>
       <c r="N9">
-        <v>0.3901320225735674</v>
+        <v>0.06698477092873922</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8837003888559778</v>
+        <v>0.4113175393331829</v>
       </c>
       <c r="Q9">
-        <v>2.349718152116509</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.9053928819997736</v>
+      </c>
+      <c r="S9">
+        <v>2.151419358599156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.775335599899506</v>
+        <v>3.627057441231614</v>
       </c>
       <c r="C10">
-        <v>0.5786144383150997</v>
+        <v>0.6322831164851834</v>
       </c>
       <c r="D10">
-        <v>0.08734171626748122</v>
+        <v>0.0910552195598342</v>
       </c>
       <c r="E10">
-        <v>0.05961570630959123</v>
+        <v>0.05795468708779339</v>
       </c>
       <c r="F10">
-        <v>0.9952102578377264</v>
+        <v>0.9191648039867601</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.000260160299489165</v>
+        <v>0.0003236636162182727</v>
       </c>
       <c r="I10">
-        <v>0.001099443929842181</v>
+        <v>0.001456730774417991</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>0.4267952877509487</v>
+        <v>0.3727883566457919</v>
       </c>
       <c r="L10">
-        <v>0.0727239571898961</v>
+        <v>0.1647988293805547</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1237302242605125</v>
       </c>
       <c r="N10">
-        <v>0.4426476430869855</v>
+        <v>0.06975837463371537</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.879207595678011</v>
+        <v>0.4672229922952909</v>
       </c>
       <c r="Q10">
-        <v>2.521596340978789</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.9158814324047313</v>
+      </c>
+      <c r="S10">
+        <v>2.291571236519928</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.886334269656231</v>
+        <v>3.7398676555311</v>
       </c>
       <c r="C11">
-        <v>0.6336766341524935</v>
+        <v>0.6894170238915649</v>
       </c>
       <c r="D11">
-        <v>0.07933696257859424</v>
+        <v>0.08271371029440644</v>
       </c>
       <c r="E11">
-        <v>0.05036940699625347</v>
+        <v>0.04921017069704359</v>
       </c>
       <c r="F11">
-        <v>0.9288643220459676</v>
+        <v>0.857678385606647</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.01884204668963463</v>
+        <v>0.01890419408150734</v>
       </c>
       <c r="I11">
-        <v>0.001816320476306643</v>
+        <v>0.002313678230009053</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>0.388779884835639</v>
+        <v>0.3396122976792313</v>
       </c>
       <c r="L11">
-        <v>0.06965257751352683</v>
+        <v>0.1496783667708712</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.115193296618358</v>
       </c>
       <c r="N11">
-        <v>0.3691634499066794</v>
+        <v>0.06861900306201107</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9282748015040454</v>
+        <v>0.3908961428627151</v>
       </c>
       <c r="Q11">
-        <v>2.362902817002151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.9731783600334438</v>
+      </c>
+      <c r="S11">
+        <v>2.147044030520647</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.863719427682668</v>
+        <v>3.725257249789593</v>
       </c>
       <c r="C12">
-        <v>0.6604311312348159</v>
+        <v>0.7146030099854386</v>
       </c>
       <c r="D12">
-        <v>0.07120115387070314</v>
+        <v>0.07421999411628377</v>
       </c>
       <c r="E12">
-        <v>0.04496396210714071</v>
+        <v>0.0442583974682309</v>
       </c>
       <c r="F12">
-        <v>0.8617859463590918</v>
+        <v>0.7967574413628</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.05748396470826833</v>
+        <v>0.05753763131384915</v>
       </c>
       <c r="I12">
-        <v>0.001844686629941528</v>
+        <v>0.002346752292791798</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>0.3583080272686381</v>
+        <v>0.3140791087302333</v>
       </c>
       <c r="L12">
-        <v>0.07310591754858287</v>
+        <v>0.1398221547966685</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1063308735935351</v>
       </c>
       <c r="N12">
-        <v>0.3015721995135863</v>
+        <v>0.07358138888640653</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9738980850164864</v>
+        <v>0.3203019210033489</v>
       </c>
       <c r="Q12">
-        <v>2.202679514324643</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1.021659523611405</v>
+      </c>
+      <c r="S12">
+        <v>2.00483737553904</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.731166913150332</v>
+        <v>3.606006375412846</v>
       </c>
       <c r="C13">
-        <v>0.6689536963563114</v>
+        <v>0.7187897397246559</v>
       </c>
       <c r="D13">
-        <v>0.062643542727713</v>
+        <v>0.06527704087693564</v>
       </c>
       <c r="E13">
-        <v>0.04208834721039395</v>
+        <v>0.04180918294038261</v>
       </c>
       <c r="F13">
-        <v>0.7875375381920762</v>
+        <v>0.7300348023810628</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1131639248104364</v>
+        <v>0.1131993236455884</v>
       </c>
       <c r="I13">
-        <v>0.001680920217505211</v>
+        <v>0.002159857745231974</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.1026584643119293</v>
       </c>
       <c r="K13">
-        <v>0.3299741997139733</v>
+        <v>0.29113098062669</v>
       </c>
       <c r="L13">
-        <v>0.08147395482838959</v>
+        <v>0.132338939556675</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.09628103285290734</v>
       </c>
       <c r="N13">
-        <v>0.2358250930625019</v>
+        <v>0.0831723788897385</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>1.020107408270562</v>
+        <v>0.2513423384991995</v>
       </c>
       <c r="Q13">
-        <v>2.023520731524599</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1.06688632611457</v>
+      </c>
+      <c r="S13">
+        <v>1.847860964993117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.588003793250437</v>
+        <v>3.474446742720659</v>
       </c>
       <c r="C14">
-        <v>0.6671222188703041</v>
+        <v>0.7126899086439948</v>
       </c>
       <c r="D14">
-        <v>0.05659286465054691</v>
+        <v>0.05895189760673958</v>
       </c>
       <c r="E14">
-        <v>0.04159181871408757</v>
+        <v>0.04158386023498295</v>
       </c>
       <c r="F14">
-        <v>0.7325093993245844</v>
+        <v>0.6807849004127604</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1624622976812589</v>
+        <v>0.162477737941785</v>
       </c>
       <c r="I14">
-        <v>0.001584724233321566</v>
+        <v>0.002044996065776239</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.3111478789308428</v>
+        <v>0.2761998186991264</v>
       </c>
       <c r="L14">
-        <v>0.09032317051757133</v>
+        <v>0.1279846793054062</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.08888018093221106</v>
       </c>
       <c r="N14">
-        <v>0.1920410241966337</v>
+        <v>0.09269891100464989</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>1.053326692825536</v>
+        <v>0.2052876402672723</v>
       </c>
       <c r="Q14">
-        <v>1.889612316856187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1.097601530408028</v>
+      </c>
+      <c r="S14">
+        <v>1.731077386250178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.528764623476661</v>
+        <v>3.419109609255486</v>
       </c>
       <c r="C15">
-        <v>0.6633332362096382</v>
+        <v>0.7073432027981994</v>
       </c>
       <c r="D15">
-        <v>0.05500703615425806</v>
+        <v>0.05729388313405082</v>
       </c>
       <c r="E15">
-        <v>0.04163078630320793</v>
+        <v>0.04168547655139498</v>
       </c>
       <c r="F15">
-        <v>0.7169824597278875</v>
+        <v>0.666965625544492</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1749545227926461</v>
+        <v>0.1749592390656716</v>
       </c>
       <c r="I15">
-        <v>0.001646266360069149</v>
+        <v>0.002115116305831499</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657407966</v>
       </c>
       <c r="K15">
-        <v>0.3065623078188118</v>
+        <v>0.2726900243789885</v>
       </c>
       <c r="L15">
-        <v>0.09267126568565587</v>
+        <v>0.1271775019500776</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.08676606378084983</v>
       </c>
       <c r="N15">
-        <v>0.1811793229411691</v>
+        <v>0.09516348665282592</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>1.061376074779332</v>
+        <v>0.1938278581003701</v>
       </c>
       <c r="Q15">
-        <v>1.851234175512246</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1.104344947195472</v>
+      </c>
+      <c r="S15">
+        <v>1.697794754523159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.312145296720757</v>
+        <v>3.212267000347481</v>
       </c>
       <c r="C16">
-        <v>0.6254299915499359</v>
+        <v>0.6644802467355646</v>
       </c>
       <c r="D16">
-        <v>0.05353181155067688</v>
+        <v>0.05575321427640034</v>
       </c>
       <c r="E16">
-        <v>0.0411087251080251</v>
+        <v>0.04116241079364791</v>
       </c>
       <c r="F16">
-        <v>0.7016721271973267</v>
+        <v>0.6544101697452334</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1621719181552095</v>
+        <v>0.1621092800295685</v>
       </c>
       <c r="I16">
-        <v>0.001587407486547399</v>
+        <v>0.001990810224340223</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926787475</v>
       </c>
       <c r="K16">
-        <v>0.309015706041599</v>
+        <v>0.2761907009126467</v>
       </c>
       <c r="L16">
-        <v>0.08935554603826645</v>
+        <v>0.1304999984063286</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.08472955600650778</v>
       </c>
       <c r="N16">
-        <v>0.1740808215024359</v>
+        <v>0.09149565816287364</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>1.051238503546344</v>
+        <v>0.1861417282247331</v>
       </c>
       <c r="Q16">
-        <v>1.812051099389521</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1.087692497456388</v>
+      </c>
+      <c r="S16">
+        <v>1.666902763593384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.221771649335437</v>
+        <v>3.123264767289697</v>
       </c>
       <c r="C17">
-        <v>0.5975080676021776</v>
+        <v>0.6350683008712679</v>
       </c>
       <c r="D17">
-        <v>0.0555445657225988</v>
+        <v>0.05785559951688413</v>
       </c>
       <c r="E17">
-        <v>0.04071142580454223</v>
+        <v>0.04063635587235792</v>
       </c>
       <c r="F17">
-        <v>0.718878328435899</v>
+        <v>0.6707560999117845</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1244062195170983</v>
+        <v>0.1242993475978551</v>
       </c>
       <c r="I17">
-        <v>0.001633804900904146</v>
+        <v>0.001996775507302928</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234516</v>
       </c>
       <c r="K17">
-        <v>0.3207475749000288</v>
+        <v>0.2867430084364813</v>
       </c>
       <c r="L17">
-        <v>0.08159591262381127</v>
+        <v>0.1356090339167668</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.08690502707290548</v>
       </c>
       <c r="N17">
-        <v>0.1910233121481113</v>
+        <v>0.08316173465940224</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>1.026135751751767</v>
+        <v>0.20377984033194</v>
       </c>
       <c r="Q17">
-        <v>1.852608100031091</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1.059073955325175</v>
+      </c>
+      <c r="S17">
+        <v>1.704975043150739</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.232011020633536</v>
+        <v>3.127903806928373</v>
       </c>
       <c r="C18">
-        <v>0.5737760283622038</v>
+        <v>0.6124582779536922</v>
       </c>
       <c r="D18">
-        <v>0.06099361159749606</v>
+        <v>0.06354382911494127</v>
       </c>
       <c r="E18">
-        <v>0.0417942950408603</v>
+        <v>0.04144483808379573</v>
       </c>
       <c r="F18">
-        <v>0.7680518000731169</v>
+        <v>0.7157483017724502</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07159012512942553</v>
+        <v>0.07147356580417608</v>
       </c>
       <c r="I18">
-        <v>0.001418125390484803</v>
+        <v>0.001721800651481864</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146309314</v>
       </c>
       <c r="K18">
-        <v>0.3432284976921487</v>
+        <v>0.3058380523556821</v>
       </c>
       <c r="L18">
-        <v>0.07220422811854554</v>
+        <v>0.1434595456205123</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.09315595111470643</v>
       </c>
       <c r="N18">
-        <v>0.2337105360819152</v>
+        <v>0.07285520327726402</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9860566464278406</v>
+        <v>0.2484177157768528</v>
       </c>
       <c r="Q18">
-        <v>1.971655753256528</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1.017219854521855</v>
+      </c>
+      <c r="S18">
+        <v>1.811657272638541</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.314982506062108</v>
+        <v>3.200172926122548</v>
       </c>
       <c r="C19">
-        <v>0.558340716925386</v>
+        <v>0.600176990448773</v>
       </c>
       <c r="D19">
-        <v>0.06934379917300504</v>
+        <v>0.07225574723024408</v>
       </c>
       <c r="E19">
-        <v>0.04605346837292856</v>
+        <v>0.04529522399260433</v>
       </c>
       <c r="F19">
-        <v>0.8382352120289553</v>
+        <v>0.7792596645984204</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02631539652762171</v>
+        <v>0.02623003723980588</v>
       </c>
       <c r="I19">
-        <v>0.001530981153349487</v>
+        <v>0.00187813681433191</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.0759263476844998</v>
       </c>
       <c r="K19">
-        <v>0.3721356798805502</v>
+        <v>0.3297674609330414</v>
       </c>
       <c r="L19">
-        <v>0.06684178505045857</v>
+        <v>0.1526895941906652</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1019423530237837</v>
       </c>
       <c r="N19">
-        <v>0.3002338768242936</v>
+        <v>0.06624038781613617</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9426894810227679</v>
+        <v>0.3179565330850522</v>
       </c>
       <c r="Q19">
-        <v>2.140086794075046</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.9733534457869411</v>
+      </c>
+      <c r="S19">
+        <v>1.96044276824</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.613680656080987</v>
+        <v>3.473630521475059</v>
       </c>
       <c r="C20">
-        <v>0.5609930355982158</v>
+        <v>0.6113485437170993</v>
       </c>
       <c r="D20">
-        <v>0.08538620199060887</v>
+        <v>0.08899928477908503</v>
       </c>
       <c r="E20">
-        <v>0.05872169649539849</v>
+        <v>0.0571558335718283</v>
       </c>
       <c r="F20">
-        <v>0.9705139667906337</v>
+        <v>0.8976259625123504</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.0001260943571641526</v>
+        <v>0.0001578021120463013</v>
       </c>
       <c r="I20">
-        <v>0.001670999417388686</v>
+        <v>0.002128818864463256</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835525</v>
       </c>
       <c r="K20">
-        <v>0.4211733630693146</v>
+        <v>0.3690337212105455</v>
       </c>
       <c r="L20">
-        <v>0.07169343575939191</v>
+        <v>0.1655542670589512</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1194009445573627</v>
       </c>
       <c r="N20">
-        <v>0.4299725387558624</v>
+        <v>0.06881409883599066</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8839457521399012</v>
+        <v>0.4536695709260243</v>
       </c>
       <c r="Q20">
-        <v>2.457959505433109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.9171679326004352</v>
+      </c>
+      <c r="S20">
+        <v>2.237420247423074</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.075963635366236</v>
+        <v>3.909800041874178</v>
       </c>
       <c r="C21">
-        <v>0.6230483206239796</v>
+        <v>0.6847279250079623</v>
       </c>
       <c r="D21">
-        <v>0.09371345854592761</v>
+        <v>0.09772428954519796</v>
       </c>
       <c r="E21">
-        <v>0.0629724260182023</v>
+        <v>0.0610315999461104</v>
       </c>
       <c r="F21">
-        <v>1.044255065302238</v>
+        <v>0.9610834584423884</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.00041961770879273</v>
+        <v>0.0005269910940859379</v>
       </c>
       <c r="I21">
-        <v>0.002286442958372881</v>
+        <v>0.00284797672040682</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752018</v>
       </c>
       <c r="K21">
-        <v>0.434628508832219</v>
+        <v>0.3767012330098396</v>
       </c>
       <c r="L21">
-        <v>0.07561102474137193</v>
+        <v>0.1621145873751146</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1310985845700436</v>
       </c>
       <c r="N21">
-        <v>0.4884963388923467</v>
+        <v>0.07222348350118857</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8733949235057068</v>
+        <v>0.51564237913108</v>
       </c>
       <c r="Q21">
-        <v>2.638625027974996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.9179230665180995</v>
+      </c>
+      <c r="S21">
+        <v>2.387687469223579</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.374759966068495</v>
+        <v>4.191913274222429</v>
       </c>
       <c r="C22">
-        <v>0.6627378956955852</v>
+        <v>0.7315545327798247</v>
       </c>
       <c r="D22">
-        <v>0.0983850009947318</v>
+        <v>0.102626970356134</v>
       </c>
       <c r="E22">
-        <v>0.06507856908293697</v>
+        <v>0.06292569262471659</v>
       </c>
       <c r="F22">
-        <v>1.089842112935244</v>
+        <v>1.000246900524985</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.0009783267296654685</v>
+        <v>0.001096330698616699</v>
       </c>
       <c r="I22">
-        <v>0.002680773904756073</v>
+        <v>0.003195770333009662</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079829286</v>
       </c>
       <c r="K22">
-        <v>0.4429278828187293</v>
+        <v>0.3813883788318151</v>
       </c>
       <c r="L22">
-        <v>0.0777083346943872</v>
+        <v>0.1596456612623491</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.139165552327885</v>
       </c>
       <c r="N22">
-        <v>0.5201655906609091</v>
+        <v>0.0740923337952184</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.8683299616561939</v>
+        <v>0.5493148000140735</v>
       </c>
       <c r="Q22">
-        <v>2.752342548354164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.9201865098443847</v>
+      </c>
+      <c r="S22">
+        <v>2.482311112203121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.21990544202805</v>
+        <v>4.045893973630427</v>
       </c>
       <c r="C23">
-        <v>0.6397670906692383</v>
+        <v>0.7046378903864934</v>
       </c>
       <c r="D23">
-        <v>0.09580425480436361</v>
+        <v>0.09992043357615898</v>
       </c>
       <c r="E23">
-        <v>0.06401228507481527</v>
+        <v>0.06197046900384251</v>
       </c>
       <c r="F23">
-        <v>1.067531122875749</v>
+        <v>0.9812811107082382</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.0006554597150938424</v>
+        <v>0.0007713262468007631</v>
       </c>
       <c r="I23">
-        <v>0.002151949119896912</v>
+        <v>0.00263494180134316</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787805219</v>
       </c>
       <c r="K23">
-        <v>0.4398456494463829</v>
+        <v>0.3801046376105717</v>
       </c>
       <c r="L23">
-        <v>0.07667433841976568</v>
+        <v>0.1613823049624763</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1353208565610373</v>
       </c>
       <c r="N23">
-        <v>0.5026190467848579</v>
+        <v>0.07316732525916692</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.8695468822914521</v>
+        <v>0.5306799190948368</v>
       </c>
       <c r="Q23">
-        <v>2.697743528374644</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.917280263350861</v>
+      </c>
+      <c r="S23">
+        <v>2.437599384015982</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.625762307768355</v>
+        <v>3.484593084864912</v>
       </c>
       <c r="C24">
-        <v>0.5560704381951496</v>
+        <v>0.6064466793968677</v>
       </c>
       <c r="D24">
-        <v>0.08622827863328553</v>
+        <v>0.08987964610684429</v>
       </c>
       <c r="E24">
-        <v>0.05988084346168598</v>
+        <v>0.05825774073169399</v>
       </c>
       <c r="F24">
-        <v>0.9814105637295825</v>
+        <v>0.9076571662293418</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1.25530040873123E-05</v>
+        <v>4.919386298074535E-05</v>
       </c>
       <c r="I24">
-        <v>0.001191493891486317</v>
+        <v>0.001552524370181274</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.076368825553498</v>
       </c>
       <c r="K24">
-        <v>0.4267695278122758</v>
+        <v>0.3738552437585412</v>
       </c>
       <c r="L24">
-        <v>0.07259606068370505</v>
+        <v>0.1674207487141963</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1211555305711052</v>
       </c>
       <c r="N24">
-        <v>0.4374549367312994</v>
+        <v>0.06952054478560221</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.8780337011879382</v>
+        <v>0.4614809433174543</v>
       </c>
       <c r="Q24">
-        <v>2.485965502130455</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.9106480050284489</v>
+      </c>
+      <c r="S24">
+        <v>2.262804889282165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.984370155077556</v>
+        <v>2.877058491130924</v>
       </c>
       <c r="C25">
-        <v>0.4664207165860432</v>
+        <v>0.5016489260444246</v>
       </c>
       <c r="D25">
-        <v>0.07600721303741409</v>
+        <v>0.0791758564029621</v>
       </c>
       <c r="E25">
-        <v>0.05541355751240751</v>
+        <v>0.05423134805116092</v>
       </c>
       <c r="F25">
-        <v>0.8920376854495373</v>
+        <v>0.8310955614619289</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.000452762001033058</v>
+        <v>0.0002678574375496456</v>
       </c>
       <c r="I25">
-        <v>0.001309723237543636</v>
+        <v>0.00135521298070973</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>0.4143747372087851</v>
+        <v>0.3683873591970901</v>
       </c>
       <c r="L25">
-        <v>0.06812409968317024</v>
+        <v>0.1742054435706244</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1084999573454191</v>
       </c>
       <c r="N25">
-        <v>0.3675956828752334</v>
+        <v>0.06550852734541213</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.890219248938223</v>
+        <v>0.3873996881024908</v>
       </c>
       <c r="Q25">
-        <v>2.267923093800789</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.9068555100380706</v>
+      </c>
+      <c r="S25">
+        <v>2.082574076630408</v>
       </c>
     </row>
   </sheetData>
